--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF8A7C-10F4-4979-B0B7-BBF6F26E5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFBDEA-5C23-4848-AFE5-92CD5027A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -2078,21 +2078,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="49" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="49" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="49" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="49" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="49" customWidth="1"/>
     <col min="13" max="13" width="10" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="49"/>
+    <col min="14" max="14" width="11.453125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2120,7 +2120,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2148,7 +2148,7 @@
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2176,7 +2176,7 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
@@ -2204,7 +2204,7 @@
       <c r="Y4" s="48"/>
       <c r="Z4" s="48"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -2232,7 +2232,7 @@
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -2260,7 +2260,7 @@
       <c r="Y6" s="48"/>
       <c r="Z6" s="48"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -2288,7 +2288,7 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -2316,7 +2316,7 @@
       <c r="Y8" s="48"/>
       <c r="Z8" s="48"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -2344,7 +2344,7 @@
       <c r="Y9" s="48"/>
       <c r="Z9" s="48"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2372,7 +2372,7 @@
       <c r="Y10" s="48"/>
       <c r="Z10" s="48"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -2400,7 +2400,7 @@
       <c r="Y11" s="48"/>
       <c r="Z11" s="48"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2428,7 +2428,7 @@
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2456,7 +2456,7 @@
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -2484,7 +2484,7 @@
       <c r="Y14" s="48"/>
       <c r="Z14" s="48"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -2512,7 +2512,7 @@
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="64" t="s">
         <v>158</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -2570,7 +2570,7 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -2598,7 +2598,7 @@
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
         <v>5</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>159</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y20" s="48"/>
       <c r="Z20" s="48"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>160</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -2722,7 +2722,7 @@
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="55"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -2780,7 +2780,7 @@
       <c r="Y24" s="48"/>
       <c r="Z24" s="48"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2808,7 +2808,7 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>162</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -2868,7 +2868,7 @@
       <c r="Y27" s="48"/>
       <c r="Z27" s="48"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -2896,7 +2896,7 @@
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55" t="s">
         <v>163</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55" t="s">
         <v>166</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="61"/>
       <c r="B32" s="62" t="s">
         <v>168</v>
@@ -3022,7 +3022,7 @@
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3050,7 +3050,7 @@
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3078,7 +3078,7 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3106,7 +3106,7 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3134,7 +3134,7 @@
       <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3162,7 +3162,7 @@
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3190,7 +3190,7 @@
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3218,7 +3218,7 @@
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3246,7 +3246,7 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3274,7 +3274,7 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3302,7 +3302,7 @@
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -3330,7 +3330,7 @@
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -3358,7 +3358,7 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -3386,7 +3386,7 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -3414,7 +3414,7 @@
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -3442,7 +3442,7 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -3470,7 +3470,7 @@
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -3498,7 +3498,7 @@
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -3526,7 +3526,7 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -3554,7 +3554,7 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -3582,7 +3582,7 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -3610,7 +3610,7 @@
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3638,7 +3638,7 @@
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -3666,7 +3666,7 @@
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3694,7 +3694,7 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3722,7 +3722,7 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3750,7 +3750,7 @@
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3778,7 +3778,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3806,7 +3806,7 @@
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3834,7 +3834,7 @@
       <c r="Y61" s="48"/>
       <c r="Z61" s="48"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3862,7 +3862,7 @@
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -3890,7 +3890,7 @@
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -3918,7 +3918,7 @@
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3946,7 +3946,7 @@
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -3974,7 +3974,7 @@
       <c r="Y66" s="48"/>
       <c r="Z66" s="48"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -4002,7 +4002,7 @@
       <c r="Y67" s="48"/>
       <c r="Z67" s="48"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -4030,7 +4030,7 @@
       <c r="Y68" s="48"/>
       <c r="Z68" s="48"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -4058,7 +4058,7 @@
       <c r="Y69" s="48"/>
       <c r="Z69" s="48"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -4086,7 +4086,7 @@
       <c r="Y70" s="48"/>
       <c r="Z70" s="48"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -4114,7 +4114,7 @@
       <c r="Y71" s="48"/>
       <c r="Z71" s="48"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -4142,7 +4142,7 @@
       <c r="Y72" s="48"/>
       <c r="Z72" s="48"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -4170,7 +4170,7 @@
       <c r="Y73" s="48"/>
       <c r="Z73" s="48"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -4198,7 +4198,7 @@
       <c r="Y74" s="48"/>
       <c r="Z74" s="48"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -4226,7 +4226,7 @@
       <c r="Y75" s="48"/>
       <c r="Z75" s="48"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -4254,7 +4254,7 @@
       <c r="Y76" s="48"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -4282,7 +4282,7 @@
       <c r="Y77" s="48"/>
       <c r="Z77" s="48"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -4310,7 +4310,7 @@
       <c r="Y78" s="48"/>
       <c r="Z78" s="48"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -4338,7 +4338,7 @@
       <c r="Y79" s="48"/>
       <c r="Z79" s="48"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -4366,7 +4366,7 @@
       <c r="Y80" s="48"/>
       <c r="Z80" s="48"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -4394,7 +4394,7 @@
       <c r="Y81" s="48"/>
       <c r="Z81" s="48"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -4422,7 +4422,7 @@
       <c r="Y82" s="48"/>
       <c r="Z82" s="48"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="48"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
@@ -4450,7 +4450,7 @@
       <c r="Y83" s="48"/>
       <c r="Z83" s="48"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="48"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
@@ -4478,7 +4478,7 @@
       <c r="Y84" s="48"/>
       <c r="Z84" s="48"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="48"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
@@ -4506,7 +4506,7 @@
       <c r="Y85" s="48"/>
       <c r="Z85" s="48"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="48"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
@@ -4534,7 +4534,7 @@
       <c r="Y86" s="48"/>
       <c r="Z86" s="48"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -4562,7 +4562,7 @@
       <c r="Y87" s="48"/>
       <c r="Z87" s="48"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="48"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
@@ -4590,7 +4590,7 @@
       <c r="Y88" s="48"/>
       <c r="Z88" s="48"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="48"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
@@ -4618,7 +4618,7 @@
       <c r="Y89" s="48"/>
       <c r="Z89" s="48"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="48"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
@@ -4646,7 +4646,7 @@
       <c r="Y90" s="48"/>
       <c r="Z90" s="48"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="48"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
@@ -4674,7 +4674,7 @@
       <c r="Y91" s="48"/>
       <c r="Z91" s="48"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
@@ -4702,7 +4702,7 @@
       <c r="Y92" s="48"/>
       <c r="Z92" s="48"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="48"/>
@@ -4730,7 +4730,7 @@
       <c r="Y93" s="48"/>
       <c r="Z93" s="48"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="48"/>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
@@ -4758,7 +4758,7 @@
       <c r="Y94" s="48"/>
       <c r="Z94" s="48"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="48"/>
@@ -4786,7 +4786,7 @@
       <c r="Y95" s="48"/>
       <c r="Z95" s="48"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="48"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
@@ -4814,7 +4814,7 @@
       <c r="Y96" s="48"/>
       <c r="Z96" s="48"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
@@ -4842,7 +4842,7 @@
       <c r="Y97" s="48"/>
       <c r="Z97" s="48"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4870,7 +4870,7 @@
       <c r="Y98" s="48"/>
       <c r="Z98" s="48"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="48"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
@@ -4929,28 +4929,28 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="42.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="19.54296875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="27.26953125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="10"/>
+    <col min="7" max="7" width="42.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="101.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4969,13 +4969,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -5006,38 +5006,38 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="69"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>50</v>
       </c>
@@ -5055,21 +5055,21 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>55</v>
       </c>
@@ -5080,14 +5080,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
@@ -5105,14 +5105,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -5139,14 +5139,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>82</v>
       </c>
@@ -5209,14 +5209,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>104</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>115</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>18</v>
       </c>
@@ -5403,31 +5403,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="6" max="9" width="9.1796875" style="4"/>
+    <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5456,12 +5456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>148</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>149</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>136</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>155</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
         <v>148</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>149</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
@@ -6440,26 +6440,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1796875" style="4"/>
+    <col min="19" max="19" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6469,13 +6469,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -6513,7 +6513,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="5"/>
@@ -6523,7 +6523,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6533,7 +6533,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6543,7 +6543,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6553,7 +6553,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6563,7 +6563,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6573,7 +6573,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6583,7 +6583,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6593,7 +6593,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6603,7 +6603,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6613,7 +6613,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6623,7 +6623,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6633,7 +6633,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6660,13 +6660,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -13683,12 +13683,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13889,15 +13886,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13922,10 +13923,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFBDEA-5C23-4848-AFE5-92CD5027A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6208E6-537A-4E3D-9BC1-FEDC92C9DD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="8955" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -2078,21 +2078,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="49" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="49" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="49" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="49" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="49" customWidth="1"/>
     <col min="13" max="13" width="10" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="49"/>
+    <col min="14" max="14" width="11.42578125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2120,7 +2120,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2148,7 +2148,7 @@
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2176,7 +2176,7 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
@@ -2204,7 +2204,7 @@
       <c r="Y4" s="48"/>
       <c r="Z4" s="48"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -2232,7 +2232,7 @@
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -2260,7 +2260,7 @@
       <c r="Y6" s="48"/>
       <c r="Z6" s="48"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -2288,7 +2288,7 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -2316,7 +2316,7 @@
       <c r="Y8" s="48"/>
       <c r="Z8" s="48"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -2344,7 +2344,7 @@
       <c r="Y9" s="48"/>
       <c r="Z9" s="48"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2372,7 +2372,7 @@
       <c r="Y10" s="48"/>
       <c r="Z10" s="48"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -2400,7 +2400,7 @@
       <c r="Y11" s="48"/>
       <c r="Z11" s="48"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2428,7 +2428,7 @@
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2456,7 +2456,7 @@
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -2484,7 +2484,7 @@
       <c r="Y14" s="48"/>
       <c r="Z14" s="48"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -2512,7 +2512,7 @@
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>158</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -2570,7 +2570,7 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -2598,7 +2598,7 @@
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>5</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>159</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y20" s="48"/>
       <c r="Z20" s="48"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>160</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -2722,7 +2722,7 @@
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -2780,7 +2780,7 @@
       <c r="Y24" s="48"/>
       <c r="Z24" s="48"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2808,7 +2808,7 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
         <v>162</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -2868,7 +2868,7 @@
       <c r="Y27" s="48"/>
       <c r="Z27" s="48"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -2896,7 +2896,7 @@
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>163</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>166</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
       <c r="B32" s="62" t="s">
         <v>168</v>
@@ -3022,7 +3022,7 @@
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3050,7 +3050,7 @@
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3078,7 +3078,7 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3106,7 +3106,7 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3134,7 +3134,7 @@
       <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3162,7 +3162,7 @@
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3190,7 +3190,7 @@
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3218,7 +3218,7 @@
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3246,7 +3246,7 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3274,7 +3274,7 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3302,7 +3302,7 @@
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -3330,7 +3330,7 @@
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -3358,7 +3358,7 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -3386,7 +3386,7 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -3414,7 +3414,7 @@
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -3442,7 +3442,7 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -3470,7 +3470,7 @@
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -3498,7 +3498,7 @@
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -3526,7 +3526,7 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -3554,7 +3554,7 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -3582,7 +3582,7 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -3610,7 +3610,7 @@
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3638,7 +3638,7 @@
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -3666,7 +3666,7 @@
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3694,7 +3694,7 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3722,7 +3722,7 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3750,7 +3750,7 @@
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3778,7 +3778,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3806,7 +3806,7 @@
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3834,7 +3834,7 @@
       <c r="Y61" s="48"/>
       <c r="Z61" s="48"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3862,7 +3862,7 @@
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -3890,7 +3890,7 @@
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -3918,7 +3918,7 @@
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3946,7 +3946,7 @@
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -3974,7 +3974,7 @@
       <c r="Y66" s="48"/>
       <c r="Z66" s="48"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -4002,7 +4002,7 @@
       <c r="Y67" s="48"/>
       <c r="Z67" s="48"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -4030,7 +4030,7 @@
       <c r="Y68" s="48"/>
       <c r="Z68" s="48"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -4058,7 +4058,7 @@
       <c r="Y69" s="48"/>
       <c r="Z69" s="48"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -4086,7 +4086,7 @@
       <c r="Y70" s="48"/>
       <c r="Z70" s="48"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -4114,7 +4114,7 @@
       <c r="Y71" s="48"/>
       <c r="Z71" s="48"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -4142,7 +4142,7 @@
       <c r="Y72" s="48"/>
       <c r="Z72" s="48"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -4170,7 +4170,7 @@
       <c r="Y73" s="48"/>
       <c r="Z73" s="48"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -4198,7 +4198,7 @@
       <c r="Y74" s="48"/>
       <c r="Z74" s="48"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -4226,7 +4226,7 @@
       <c r="Y75" s="48"/>
       <c r="Z75" s="48"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -4254,7 +4254,7 @@
       <c r="Y76" s="48"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -4282,7 +4282,7 @@
       <c r="Y77" s="48"/>
       <c r="Z77" s="48"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -4310,7 +4310,7 @@
       <c r="Y78" s="48"/>
       <c r="Z78" s="48"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -4338,7 +4338,7 @@
       <c r="Y79" s="48"/>
       <c r="Z79" s="48"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -4366,7 +4366,7 @@
       <c r="Y80" s="48"/>
       <c r="Z80" s="48"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -4394,7 +4394,7 @@
       <c r="Y81" s="48"/>
       <c r="Z81" s="48"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -4422,7 +4422,7 @@
       <c r="Y82" s="48"/>
       <c r="Z82" s="48"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
@@ -4450,7 +4450,7 @@
       <c r="Y83" s="48"/>
       <c r="Z83" s="48"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
@@ -4478,7 +4478,7 @@
       <c r="Y84" s="48"/>
       <c r="Z84" s="48"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
@@ -4506,7 +4506,7 @@
       <c r="Y85" s="48"/>
       <c r="Z85" s="48"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
@@ -4534,7 +4534,7 @@
       <c r="Y86" s="48"/>
       <c r="Z86" s="48"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -4562,7 +4562,7 @@
       <c r="Y87" s="48"/>
       <c r="Z87" s="48"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="48"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
@@ -4590,7 +4590,7 @@
       <c r="Y88" s="48"/>
       <c r="Z88" s="48"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="48"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
@@ -4618,7 +4618,7 @@
       <c r="Y89" s="48"/>
       <c r="Z89" s="48"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
@@ -4646,7 +4646,7 @@
       <c r="Y90" s="48"/>
       <c r="Z90" s="48"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
@@ -4674,7 +4674,7 @@
       <c r="Y91" s="48"/>
       <c r="Z91" s="48"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
@@ -4702,7 +4702,7 @@
       <c r="Y92" s="48"/>
       <c r="Z92" s="48"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="48"/>
@@ -4730,7 +4730,7 @@
       <c r="Y93" s="48"/>
       <c r="Z93" s="48"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
@@ -4758,7 +4758,7 @@
       <c r="Y94" s="48"/>
       <c r="Z94" s="48"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="48"/>
@@ -4786,7 +4786,7 @@
       <c r="Y95" s="48"/>
       <c r="Z95" s="48"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="48"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
@@ -4814,7 +4814,7 @@
       <c r="Y96" s="48"/>
       <c r="Z96" s="48"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
@@ -4842,7 +4842,7 @@
       <c r="Y97" s="48"/>
       <c r="Z97" s="48"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="48"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4870,7 +4870,7 @@
       <c r="Y98" s="48"/>
       <c r="Z98" s="48"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="48"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
@@ -4929,28 +4929,28 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="10" customWidth="1"/>
-    <col min="2" max="3" width="27.26953125" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="10"/>
-    <col min="7" max="7" width="42.7265625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="101.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="42.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4969,13 +4969,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -5006,38 +5006,38 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="69"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>50</v>
       </c>
@@ -5055,21 +5055,21 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>55</v>
       </c>
@@ -5080,14 +5080,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
@@ -5105,14 +5105,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -5139,14 +5139,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>82</v>
       </c>
@@ -5209,14 +5209,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>104</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>115</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>18</v>
       </c>
@@ -5403,31 +5403,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.1796875" style="4"/>
-    <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="4"/>
+    <col min="6" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5456,12 +5456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>148</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="40" t="s">
         <v>149</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>136</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>155</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="39" t="s">
         <v>148</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="40" t="s">
         <v>149</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
@@ -6440,26 +6440,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.1796875" style="4"/>
-    <col min="19" max="19" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6469,13 +6469,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -6513,7 +6513,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="5"/>
@@ -6523,7 +6523,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6533,7 +6533,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6543,7 +6543,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6553,7 +6553,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6563,7 +6563,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6573,7 +6573,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6583,7 +6583,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6593,7 +6593,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6603,7 +6603,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6613,7 +6613,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6623,7 +6623,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6633,7 +6633,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6660,13 +6660,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -13683,9 +13683,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13886,19 +13889,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13923,9 +13922,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFBDEA-5C23-4848-AFE5-92CD5027A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF8A7C-10F4-4979-B0B7-BBF6F26E5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -2078,21 +2078,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="49" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="49" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="49" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="49" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="49" customWidth="1"/>
     <col min="13" max="13" width="10" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="49"/>
+    <col min="14" max="14" width="11.42578125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2120,7 +2120,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2148,7 +2148,7 @@
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2176,7 +2176,7 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
@@ -2204,7 +2204,7 @@
       <c r="Y4" s="48"/>
       <c r="Z4" s="48"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -2232,7 +2232,7 @@
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -2260,7 +2260,7 @@
       <c r="Y6" s="48"/>
       <c r="Z6" s="48"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -2288,7 +2288,7 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -2316,7 +2316,7 @@
       <c r="Y8" s="48"/>
       <c r="Z8" s="48"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -2344,7 +2344,7 @@
       <c r="Y9" s="48"/>
       <c r="Z9" s="48"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2372,7 +2372,7 @@
       <c r="Y10" s="48"/>
       <c r="Z10" s="48"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -2400,7 +2400,7 @@
       <c r="Y11" s="48"/>
       <c r="Z11" s="48"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2428,7 +2428,7 @@
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2456,7 +2456,7 @@
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -2484,7 +2484,7 @@
       <c r="Y14" s="48"/>
       <c r="Z14" s="48"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -2512,7 +2512,7 @@
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>158</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -2570,7 +2570,7 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -2598,7 +2598,7 @@
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>5</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>159</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y20" s="48"/>
       <c r="Z20" s="48"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>160</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -2722,7 +2722,7 @@
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -2780,7 +2780,7 @@
       <c r="Y24" s="48"/>
       <c r="Z24" s="48"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2808,7 +2808,7 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
         <v>162</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -2868,7 +2868,7 @@
       <c r="Y27" s="48"/>
       <c r="Z27" s="48"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -2896,7 +2896,7 @@
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>163</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>166</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
       <c r="B32" s="62" t="s">
         <v>168</v>
@@ -3022,7 +3022,7 @@
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3050,7 +3050,7 @@
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3078,7 +3078,7 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3106,7 +3106,7 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3134,7 +3134,7 @@
       <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3162,7 +3162,7 @@
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3190,7 +3190,7 @@
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3218,7 +3218,7 @@
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3246,7 +3246,7 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3274,7 +3274,7 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3302,7 +3302,7 @@
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -3330,7 +3330,7 @@
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -3358,7 +3358,7 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -3386,7 +3386,7 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -3414,7 +3414,7 @@
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -3442,7 +3442,7 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -3470,7 +3470,7 @@
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -3498,7 +3498,7 @@
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -3526,7 +3526,7 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -3554,7 +3554,7 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -3582,7 +3582,7 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -3610,7 +3610,7 @@
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3638,7 +3638,7 @@
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -3666,7 +3666,7 @@
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3694,7 +3694,7 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3722,7 +3722,7 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3750,7 +3750,7 @@
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3778,7 +3778,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3806,7 +3806,7 @@
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3834,7 +3834,7 @@
       <c r="Y61" s="48"/>
       <c r="Z61" s="48"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3862,7 +3862,7 @@
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -3890,7 +3890,7 @@
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -3918,7 +3918,7 @@
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3946,7 +3946,7 @@
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -3974,7 +3974,7 @@
       <c r="Y66" s="48"/>
       <c r="Z66" s="48"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -4002,7 +4002,7 @@
       <c r="Y67" s="48"/>
       <c r="Z67" s="48"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -4030,7 +4030,7 @@
       <c r="Y68" s="48"/>
       <c r="Z68" s="48"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -4058,7 +4058,7 @@
       <c r="Y69" s="48"/>
       <c r="Z69" s="48"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -4086,7 +4086,7 @@
       <c r="Y70" s="48"/>
       <c r="Z70" s="48"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -4114,7 +4114,7 @@
       <c r="Y71" s="48"/>
       <c r="Z71" s="48"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -4142,7 +4142,7 @@
       <c r="Y72" s="48"/>
       <c r="Z72" s="48"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -4170,7 +4170,7 @@
       <c r="Y73" s="48"/>
       <c r="Z73" s="48"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -4198,7 +4198,7 @@
       <c r="Y74" s="48"/>
       <c r="Z74" s="48"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -4226,7 +4226,7 @@
       <c r="Y75" s="48"/>
       <c r="Z75" s="48"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -4254,7 +4254,7 @@
       <c r="Y76" s="48"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -4282,7 +4282,7 @@
       <c r="Y77" s="48"/>
       <c r="Z77" s="48"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -4310,7 +4310,7 @@
       <c r="Y78" s="48"/>
       <c r="Z78" s="48"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -4338,7 +4338,7 @@
       <c r="Y79" s="48"/>
       <c r="Z79" s="48"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -4366,7 +4366,7 @@
       <c r="Y80" s="48"/>
       <c r="Z80" s="48"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -4394,7 +4394,7 @@
       <c r="Y81" s="48"/>
       <c r="Z81" s="48"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -4422,7 +4422,7 @@
       <c r="Y82" s="48"/>
       <c r="Z82" s="48"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
@@ -4450,7 +4450,7 @@
       <c r="Y83" s="48"/>
       <c r="Z83" s="48"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
@@ -4478,7 +4478,7 @@
       <c r="Y84" s="48"/>
       <c r="Z84" s="48"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
@@ -4506,7 +4506,7 @@
       <c r="Y85" s="48"/>
       <c r="Z85" s="48"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
@@ -4534,7 +4534,7 @@
       <c r="Y86" s="48"/>
       <c r="Z86" s="48"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -4562,7 +4562,7 @@
       <c r="Y87" s="48"/>
       <c r="Z87" s="48"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="48"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
@@ -4590,7 +4590,7 @@
       <c r="Y88" s="48"/>
       <c r="Z88" s="48"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="48"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
@@ -4618,7 +4618,7 @@
       <c r="Y89" s="48"/>
       <c r="Z89" s="48"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
@@ -4646,7 +4646,7 @@
       <c r="Y90" s="48"/>
       <c r="Z90" s="48"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
@@ -4674,7 +4674,7 @@
       <c r="Y91" s="48"/>
       <c r="Z91" s="48"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
@@ -4702,7 +4702,7 @@
       <c r="Y92" s="48"/>
       <c r="Z92" s="48"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="48"/>
@@ -4730,7 +4730,7 @@
       <c r="Y93" s="48"/>
       <c r="Z93" s="48"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
@@ -4758,7 +4758,7 @@
       <c r="Y94" s="48"/>
       <c r="Z94" s="48"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="48"/>
@@ -4786,7 +4786,7 @@
       <c r="Y95" s="48"/>
       <c r="Z95" s="48"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="48"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
@@ -4814,7 +4814,7 @@
       <c r="Y96" s="48"/>
       <c r="Z96" s="48"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
@@ -4842,7 +4842,7 @@
       <c r="Y97" s="48"/>
       <c r="Z97" s="48"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="48"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4870,7 +4870,7 @@
       <c r="Y98" s="48"/>
       <c r="Z98" s="48"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="48"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
@@ -4929,28 +4929,28 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="10" customWidth="1"/>
-    <col min="2" max="3" width="27.26953125" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="10"/>
-    <col min="7" max="7" width="42.7265625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="101.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="42.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4969,13 +4969,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -5006,38 +5006,38 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="69"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>50</v>
       </c>
@@ -5055,21 +5055,21 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>55</v>
       </c>
@@ -5080,14 +5080,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
@@ -5105,14 +5105,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -5139,14 +5139,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>82</v>
       </c>
@@ -5209,14 +5209,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>104</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>115</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>18</v>
       </c>
@@ -5403,31 +5403,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.1796875" style="4"/>
-    <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="4"/>
+    <col min="6" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5456,12 +5456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>148</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="40" t="s">
         <v>149</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>136</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>155</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="39" t="s">
         <v>148</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="40" t="s">
         <v>149</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
@@ -6440,26 +6440,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.1796875" style="4"/>
-    <col min="19" max="19" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6469,13 +6469,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -6513,7 +6513,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="5"/>
@@ -6523,7 +6523,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6533,7 +6533,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6543,7 +6543,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6553,7 +6553,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6563,7 +6563,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6573,7 +6573,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6583,7 +6583,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6593,7 +6593,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6603,7 +6603,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6613,7 +6613,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6623,7 +6623,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6633,7 +6633,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6660,13 +6660,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -13683,9 +13683,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13886,19 +13889,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13923,9 +13922,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6208E6-537A-4E3D-9BC1-FEDC92C9DD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025B393-C336-4090-8463-19E7DA168962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="8955" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="1425" yWindow="4665" windowWidth="18000" windowHeight="12735" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF8A7C-10F4-4979-B0B7-BBF6F26E5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B11E99E-E7BF-45A3-9ADE-1D2F9AFFB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -2078,21 +2078,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="49" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="49" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="49" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="49" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="49" customWidth="1"/>
     <col min="13" max="13" width="10" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="49"/>
+    <col min="14" max="14" width="11.453125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2120,7 +2120,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2148,7 +2148,7 @@
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2176,7 +2176,7 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
@@ -2204,7 +2204,7 @@
       <c r="Y4" s="48"/>
       <c r="Z4" s="48"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -2232,7 +2232,7 @@
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -2260,7 +2260,7 @@
       <c r="Y6" s="48"/>
       <c r="Z6" s="48"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -2288,7 +2288,7 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -2316,7 +2316,7 @@
       <c r="Y8" s="48"/>
       <c r="Z8" s="48"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -2344,7 +2344,7 @@
       <c r="Y9" s="48"/>
       <c r="Z9" s="48"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2372,7 +2372,7 @@
       <c r="Y10" s="48"/>
       <c r="Z10" s="48"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -2400,7 +2400,7 @@
       <c r="Y11" s="48"/>
       <c r="Z11" s="48"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2428,7 +2428,7 @@
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2456,7 +2456,7 @@
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -2484,7 +2484,7 @@
       <c r="Y14" s="48"/>
       <c r="Z14" s="48"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -2512,7 +2512,7 @@
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="64" t="s">
         <v>158</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -2570,7 +2570,7 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -2598,7 +2598,7 @@
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
         <v>5</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>159</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y20" s="48"/>
       <c r="Z20" s="48"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>160</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -2722,7 +2722,7 @@
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="55"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -2780,7 +2780,7 @@
       <c r="Y24" s="48"/>
       <c r="Z24" s="48"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2808,7 +2808,7 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>162</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -2868,7 +2868,7 @@
       <c r="Y27" s="48"/>
       <c r="Z27" s="48"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -2896,7 +2896,7 @@
       <c r="Y28" s="48"/>
       <c r="Z28" s="48"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55" t="s">
         <v>163</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55" t="s">
         <v>166</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="61"/>
       <c r="B32" s="62" t="s">
         <v>168</v>
@@ -3022,7 +3022,7 @@
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3050,7 +3050,7 @@
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3078,7 +3078,7 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3106,7 +3106,7 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3134,7 +3134,7 @@
       <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3162,7 +3162,7 @@
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3190,7 +3190,7 @@
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3218,7 +3218,7 @@
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3246,7 +3246,7 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3274,7 +3274,7 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3302,7 +3302,7 @@
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -3330,7 +3330,7 @@
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -3358,7 +3358,7 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -3386,7 +3386,7 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -3414,7 +3414,7 @@
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -3442,7 +3442,7 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -3470,7 +3470,7 @@
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -3498,7 +3498,7 @@
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -3526,7 +3526,7 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -3554,7 +3554,7 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -3582,7 +3582,7 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -3610,7 +3610,7 @@
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3638,7 +3638,7 @@
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -3666,7 +3666,7 @@
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3694,7 +3694,7 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3722,7 +3722,7 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3750,7 +3750,7 @@
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3778,7 +3778,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3806,7 +3806,7 @@
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3834,7 +3834,7 @@
       <c r="Y61" s="48"/>
       <c r="Z61" s="48"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3862,7 +3862,7 @@
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -3890,7 +3890,7 @@
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -3918,7 +3918,7 @@
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3946,7 +3946,7 @@
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -3974,7 +3974,7 @@
       <c r="Y66" s="48"/>
       <c r="Z66" s="48"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -4002,7 +4002,7 @@
       <c r="Y67" s="48"/>
       <c r="Z67" s="48"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -4030,7 +4030,7 @@
       <c r="Y68" s="48"/>
       <c r="Z68" s="48"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -4058,7 +4058,7 @@
       <c r="Y69" s="48"/>
       <c r="Z69" s="48"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -4086,7 +4086,7 @@
       <c r="Y70" s="48"/>
       <c r="Z70" s="48"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -4114,7 +4114,7 @@
       <c r="Y71" s="48"/>
       <c r="Z71" s="48"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -4142,7 +4142,7 @@
       <c r="Y72" s="48"/>
       <c r="Z72" s="48"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -4170,7 +4170,7 @@
       <c r="Y73" s="48"/>
       <c r="Z73" s="48"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -4198,7 +4198,7 @@
       <c r="Y74" s="48"/>
       <c r="Z74" s="48"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -4226,7 +4226,7 @@
       <c r="Y75" s="48"/>
       <c r="Z75" s="48"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -4254,7 +4254,7 @@
       <c r="Y76" s="48"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -4282,7 +4282,7 @@
       <c r="Y77" s="48"/>
       <c r="Z77" s="48"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -4310,7 +4310,7 @@
       <c r="Y78" s="48"/>
       <c r="Z78" s="48"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -4338,7 +4338,7 @@
       <c r="Y79" s="48"/>
       <c r="Z79" s="48"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -4366,7 +4366,7 @@
       <c r="Y80" s="48"/>
       <c r="Z80" s="48"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -4394,7 +4394,7 @@
       <c r="Y81" s="48"/>
       <c r="Z81" s="48"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -4422,7 +4422,7 @@
       <c r="Y82" s="48"/>
       <c r="Z82" s="48"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="48"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
@@ -4450,7 +4450,7 @@
       <c r="Y83" s="48"/>
       <c r="Z83" s="48"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="48"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
@@ -4478,7 +4478,7 @@
       <c r="Y84" s="48"/>
       <c r="Z84" s="48"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="48"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
@@ -4506,7 +4506,7 @@
       <c r="Y85" s="48"/>
       <c r="Z85" s="48"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="48"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
@@ -4534,7 +4534,7 @@
       <c r="Y86" s="48"/>
       <c r="Z86" s="48"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -4562,7 +4562,7 @@
       <c r="Y87" s="48"/>
       <c r="Z87" s="48"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="48"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
@@ -4590,7 +4590,7 @@
       <c r="Y88" s="48"/>
       <c r="Z88" s="48"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="48"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
@@ -4618,7 +4618,7 @@
       <c r="Y89" s="48"/>
       <c r="Z89" s="48"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="48"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
@@ -4646,7 +4646,7 @@
       <c r="Y90" s="48"/>
       <c r="Z90" s="48"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="48"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
@@ -4674,7 +4674,7 @@
       <c r="Y91" s="48"/>
       <c r="Z91" s="48"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
@@ -4702,7 +4702,7 @@
       <c r="Y92" s="48"/>
       <c r="Z92" s="48"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="48"/>
@@ -4730,7 +4730,7 @@
       <c r="Y93" s="48"/>
       <c r="Z93" s="48"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="48"/>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
@@ -4758,7 +4758,7 @@
       <c r="Y94" s="48"/>
       <c r="Z94" s="48"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="48"/>
@@ -4786,7 +4786,7 @@
       <c r="Y95" s="48"/>
       <c r="Z95" s="48"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="48"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
@@ -4814,7 +4814,7 @@
       <c r="Y96" s="48"/>
       <c r="Z96" s="48"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
@@ -4842,7 +4842,7 @@
       <c r="Y97" s="48"/>
       <c r="Z97" s="48"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4870,7 +4870,7 @@
       <c r="Y98" s="48"/>
       <c r="Z98" s="48"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="48"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
@@ -4929,28 +4929,28 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="42.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="19.54296875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="27.26953125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="10"/>
+    <col min="7" max="7" width="42.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="101.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4969,13 +4969,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -5006,38 +5006,38 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="69"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>50</v>
       </c>
@@ -5055,21 +5055,21 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>55</v>
       </c>
@@ -5080,14 +5080,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
@@ -5105,14 +5105,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -5139,14 +5139,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>82</v>
       </c>
@@ -5209,14 +5209,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>104</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>106</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>115</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>18</v>
       </c>
@@ -5403,31 +5403,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="6" max="9" width="9.1796875" style="4"/>
+    <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5456,12 +5456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>148</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>149</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>136</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>155</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
         <v>148</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="I32" s="46"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>149</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
@@ -6440,26 +6440,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1796875" style="4"/>
+    <col min="19" max="19" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6469,13 +6469,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -6513,7 +6513,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="5"/>
@@ -6523,7 +6523,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6533,7 +6533,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6543,7 +6543,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6553,7 +6553,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6563,7 +6563,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6573,7 +6573,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6583,7 +6583,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6593,7 +6593,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6603,7 +6603,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6613,7 +6613,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6623,7 +6623,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6633,7 +6633,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6660,13 +6660,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -13683,12 +13683,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13889,15 +13886,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13922,10 +13923,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B11E99E-E7BF-45A3-9ADE-1D2F9AFFB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D325F9F-CC03-4549-A0B4-03947134F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="25260" yWindow="2772" windowWidth="14400" windowHeight="7356" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf850925e8c42cd/Desktop/times-ireland-model/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF8A7C-10F4-4979-B0B7-BBF6F26E5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15570" documentId="13_ncr:1_{75EF8A7C-10F4-4979-B0B7-BBF6F26E5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76164746-C4CA-4075-A003-50E0FCFE1996}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1080,13 +1080,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1101,15 +1098,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1161,7 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1179,9 +1171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,9 +1247,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{A94264ED-6252-4E18-8844-190427AD428A}"/>
@@ -2078,2825 +2067,2825 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="49" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="10" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="49"/>
+    <col min="1" max="4" width="21.6640625" style="44" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="44" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="10" style="44" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="44" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="44" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-    </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-    </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-    </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-    </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-    </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-    </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-    </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="54">
         <v>1</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="48"/>
-      <c r="Z45" s="48"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="48"/>
-      <c r="Z46" s="48"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="X52" s="48"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="48"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="48"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="48"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
-      <c r="X58" s="48"/>
-      <c r="Y58" s="48"/>
-      <c r="Z58" s="48"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="48"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="48"/>
-      <c r="X59" s="48"/>
-      <c r="Y59" s="48"/>
-      <c r="Z59" s="48"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="48"/>
-      <c r="Y60" s="48"/>
-      <c r="Z60" s="48"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="48"/>
-      <c r="X61" s="48"/>
-      <c r="Y61" s="48"/>
-      <c r="Z61" s="48"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="48"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="48"/>
-      <c r="X62" s="48"/>
-      <c r="Y62" s="48"/>
-      <c r="Z62" s="48"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="48"/>
-      <c r="U63" s="48"/>
-      <c r="V63" s="48"/>
-      <c r="W63" s="48"/>
-      <c r="X63" s="48"/>
-      <c r="Y63" s="48"/>
-      <c r="Z63" s="48"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="48"/>
-      <c r="X64" s="48"/>
-      <c r="Y64" s="48"/>
-      <c r="Z64" s="48"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
-      <c r="Y65" s="48"/>
-      <c r="Z65" s="48"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="48"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="48"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48"/>
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="48"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="48"/>
-      <c r="W72" s="48"/>
-      <c r="X72" s="48"/>
-      <c r="Y72" s="48"/>
-      <c r="Z72" s="48"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="48"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="48"/>
-      <c r="W73" s="48"/>
-      <c r="X73" s="48"/>
-      <c r="Y73" s="48"/>
-      <c r="Z73" s="48"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="48"/>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="48"/>
-      <c r="X74" s="48"/>
-      <c r="Y74" s="48"/>
-      <c r="Z74" s="48"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="48"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="48"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="48"/>
-      <c r="W75" s="48"/>
-      <c r="X75" s="48"/>
-      <c r="Y75" s="48"/>
-      <c r="Z75" s="48"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="48"/>
-      <c r="X76" s="48"/>
-      <c r="Y76" s="48"/>
-      <c r="Z76" s="48"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
-      <c r="Q77" s="48"/>
-      <c r="R77" s="48"/>
-      <c r="S77" s="48"/>
-      <c r="T77" s="48"/>
-      <c r="U77" s="48"/>
-      <c r="V77" s="48"/>
-      <c r="W77" s="48"/>
-      <c r="X77" s="48"/>
-      <c r="Y77" s="48"/>
-      <c r="Z77" s="48"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="48"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="48"/>
-      <c r="W78" s="48"/>
-      <c r="X78" s="48"/>
-      <c r="Y78" s="48"/>
-      <c r="Z78" s="48"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="48"/>
-      <c r="T79" s="48"/>
-      <c r="U79" s="48"/>
-      <c r="V79" s="48"/>
-      <c r="W79" s="48"/>
-      <c r="X79" s="48"/>
-      <c r="Y79" s="48"/>
-      <c r="Z79" s="48"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="48"/>
-      <c r="U80" s="48"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="48"/>
-      <c r="X80" s="48"/>
-      <c r="Y80" s="48"/>
-      <c r="Z80" s="48"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48"/>
-      <c r="T81" s="48"/>
-      <c r="U81" s="48"/>
-      <c r="V81" s="48"/>
-      <c r="W81" s="48"/>
-      <c r="X81" s="48"/>
-      <c r="Y81" s="48"/>
-      <c r="Z81" s="48"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="48"/>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="48"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="48"/>
-      <c r="S83" s="48"/>
-      <c r="T83" s="48"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="48"/>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="48"/>
-      <c r="Z83" s="48"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="48"/>
-      <c r="S84" s="48"/>
-      <c r="T84" s="48"/>
-      <c r="U84" s="48"/>
-      <c r="V84" s="48"/>
-      <c r="W84" s="48"/>
-      <c r="X84" s="48"/>
-      <c r="Y84" s="48"/>
-      <c r="Z84" s="48"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
-      <c r="Q85" s="48"/>
-      <c r="R85" s="48"/>
-      <c r="S85" s="48"/>
-      <c r="T85" s="48"/>
-      <c r="U85" s="48"/>
-      <c r="V85" s="48"/>
-      <c r="W85" s="48"/>
-      <c r="X85" s="48"/>
-      <c r="Y85" s="48"/>
-      <c r="Z85" s="48"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="48"/>
-      <c r="S86" s="48"/>
-      <c r="T86" s="48"/>
-      <c r="U86" s="48"/>
-      <c r="V86" s="48"/>
-      <c r="W86" s="48"/>
-      <c r="X86" s="48"/>
-      <c r="Y86" s="48"/>
-      <c r="Z86" s="48"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
-      <c r="Q87" s="48"/>
-      <c r="R87" s="48"/>
-      <c r="S87" s="48"/>
-      <c r="T87" s="48"/>
-      <c r="U87" s="48"/>
-      <c r="V87" s="48"/>
-      <c r="W87" s="48"/>
-      <c r="X87" s="48"/>
-      <c r="Y87" s="48"/>
-      <c r="Z87" s="48"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48"/>
-      <c r="S88" s="48"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-      <c r="W88" s="48"/>
-      <c r="X88" s="48"/>
-      <c r="Y88" s="48"/>
-      <c r="Z88" s="48"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48"/>
-      <c r="S89" s="48"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="48"/>
-      <c r="W89" s="48"/>
-      <c r="X89" s="48"/>
-      <c r="Y89" s="48"/>
-      <c r="Z89" s="48"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="48"/>
-      <c r="R90" s="48"/>
-      <c r="S90" s="48"/>
-      <c r="T90" s="48"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="48"/>
-      <c r="X90" s="48"/>
-      <c r="Y90" s="48"/>
-      <c r="Z90" s="48"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="48"/>
-      <c r="S91" s="48"/>
-      <c r="T91" s="48"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="48"/>
-      <c r="W91" s="48"/>
-      <c r="X91" s="48"/>
-      <c r="Y91" s="48"/>
-      <c r="Z91" s="48"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="48"/>
-      <c r="P92" s="48"/>
-      <c r="Q92" s="48"/>
-      <c r="R92" s="48"/>
-      <c r="S92" s="48"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="48"/>
-      <c r="X92" s="48"/>
-      <c r="Y92" s="48"/>
-      <c r="Z92" s="48"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48"/>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-      <c r="Z93" s="48"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="48"/>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="48"/>
-      <c r="X94" s="48"/>
-      <c r="Y94" s="48"/>
-      <c r="Z94" s="48"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
-      <c r="Q95" s="48"/>
-      <c r="R95" s="48"/>
-      <c r="S95" s="48"/>
-      <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="48"/>
-      <c r="X95" s="48"/>
-      <c r="Y95" s="48"/>
-      <c r="Z95" s="48"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
-      <c r="Z96" s="48"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="48"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="48"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="48"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="48"/>
-      <c r="Z97" s="48"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="48"/>
-      <c r="S98" s="48"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
-      <c r="X98" s="48"/>
-      <c r="Y98" s="48"/>
-      <c r="Z98" s="48"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="48"/>
-      <c r="S99" s="48"/>
-      <c r="T99" s="48"/>
-      <c r="U99" s="48"/>
-      <c r="V99" s="48"/>
-      <c r="W99" s="48"/>
-      <c r="X99" s="48"/>
-      <c r="Y99" s="48"/>
-      <c r="Z99" s="48"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="43"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="43"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="43"/>
+      <c r="Z83" s="43"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="43"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="43"/>
+      <c r="Y85" s="43"/>
+      <c r="Z85" s="43"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="43"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="43"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="43"/>
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="43"/>
+      <c r="Z98" s="43"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4929,455 +4918,449 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="42.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" customWidth="1"/>
+    <col min="9" max="9" width="101.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="66" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="67"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="68" t="s">
+      <c r="C12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="69"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26" t="s">
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5403,31 +5386,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="6" max="9" width="9.109375" style="4"/>
+    <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5440,28 +5423,28 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="36">
         <v>2018</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="36">
         <v>2030</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="36">
         <v>2040</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="36">
         <v>2050</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5474,27 +5457,27 @@
       <c r="E6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B6,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E6)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B6,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E6)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B6,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E6)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B6,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E6)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5507,27 +5490,27 @@
       <c r="E7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B7,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E7)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B7,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E7)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B7,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E7)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B7,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E7)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5540,27 +5523,27 @@
       <c r="E8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B8,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E8)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B8,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E8)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B8,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E8)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B8,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E8)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5573,27 +5556,27 @@
       <c r="E9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B9,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E9)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B9,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E9)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B9,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E9)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B9,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E9)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5606,27 +5589,27 @@
       <c r="E10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B10,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E10)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B10,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E10)))</f>
         <v>0.69798704183094062</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B10,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E10)))</f>
         <v>0.71853637712904161</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B10,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E10)))</f>
         <v>0.71853637712904161</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5639,27 +5622,27 @@
       <c r="E11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B11,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E11)))</f>
         <v>0.66906701310929817</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B11,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E11)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B11,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E11)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B11,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E11)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5672,27 +5655,27 @@
       <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B12,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E12)))</f>
         <v>0.66906701310929817</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B12,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E12)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B12,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E12)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B12,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E12)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5705,27 +5688,27 @@
       <c r="E13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B13,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E13)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B13,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E13)))</f>
         <v>0.6788003362531414</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B13,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E13)))</f>
         <v>0.6879774695030535</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B13,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E13)))</f>
         <v>0.6879774695030535</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5738,73 +5721,73 @@
       <c r="E14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B14,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E14)))</f>
         <v>2.2562356664954542E-2</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B14,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E14)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B14,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E14)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B14,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E14)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B15,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E15)))</f>
         <v>0.12030612099845761</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B15,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E15)))</f>
         <v>0.14868334290172902</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B15,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E15)))</f>
         <v>0.17528698843605151</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B15,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E15)))</f>
         <v>0.17528698843605151</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5817,27 +5800,27 @@
       <c r="E17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B17,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E17)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B17,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E17)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B17,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E17)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B17,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E17)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5850,27 +5833,27 @@
       <c r="E18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B18,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E18)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B18,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E18)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B18,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E18)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B18,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E18)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5883,27 +5866,27 @@
       <c r="E19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B19,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E19)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B19,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E19)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B19,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E19)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B19,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E19)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5916,27 +5899,27 @@
       <c r="E20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B20,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E20)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B20,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E20)))</f>
         <v>0.70484355223261652</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B20,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E20)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B20,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E20)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5949,27 +5932,27 @@
       <c r="E21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B21,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E21)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B21,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E21)))</f>
         <v>0.69798704183094062</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B21,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E21)))</f>
         <v>0.71853637712904161</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B21,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E21)))</f>
         <v>0.71853637712904161</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -5982,27 +5965,27 @@
       <c r="E22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B22,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E22)))</f>
         <v>0.66906701310929817</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B22,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E22)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B22,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E22)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B22,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E22)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6015,27 +5998,27 @@
       <c r="E23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B23,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E23)))</f>
         <v>0.66906701310929817</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B23,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E23)))</f>
         <v>0.72698028581517038</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B23,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E23)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B23,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E23)))</f>
         <v>0.75731580961348532</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6048,106 +6031,106 @@
       <c r="E24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B24,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E24)))</f>
         <v>0.63597371442022799</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B24,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E24)))</f>
         <v>0.6788003362531414</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B24,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E24)))</f>
         <v>0.6879774695030535</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B24,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E24)))</f>
         <v>0.6879774695030535</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="40" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B25,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E25)))</f>
         <v>2.2562356664954542E-2</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B25,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E25)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B25,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E25)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B25,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E25)))</f>
         <v>0.22379951852805113</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B26,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E26)))</f>
         <v>0.12030612099845761</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B26,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E26)))</f>
         <v>0.14868334290172902</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B26,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E26)))</f>
         <v>0.17528698843605151</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B26,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E26)))</f>
         <v>0.17528698843605151</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6160,27 +6143,27 @@
       <c r="E28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B28,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E28)))</f>
         <v>0.47996244917175424</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B28,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E28)))</f>
         <v>0.57834793176088173</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B28,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E28)))</f>
         <v>0.60997183687881562</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B28,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E28)))</f>
         <v>0.60997183687881562</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6193,27 +6176,27 @@
       <c r="E29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B29,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E29)))</f>
         <v>0.73716513676550766</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B29,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E29)))</f>
         <v>0.75353670576860399</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B29,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E29)))</f>
         <v>0.76361929507807014</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B29,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E29)))</f>
         <v>0.76361929507807014</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6226,73 +6209,73 @@
       <c r="E30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B30,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E30)))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B30,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E30)))</f>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B30,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E30)))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B30,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E30)))</f>
         <v>0</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B31,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E31)))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B31,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E31)))</f>
         <v>0</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B31,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E31)))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B31,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E31)))</f>
         <v>0</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6305,27 +6288,27 @@
       <c r="E33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B33,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E33)))</f>
         <v>0.47996244917175424</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B33,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E33)))</f>
         <v>0.57834793176088173</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B33,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E33)))</f>
         <v>0.60997183687881562</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B33,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E33)))</f>
         <v>0.60997183687881562</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6338,89 +6321,89 @@
       <c r="E34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B34,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E34)))</f>
         <v>0.73716513676550766</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B34,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E34)))</f>
         <v>0.75353670576860399</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B34,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E34)))</f>
         <v>0.76361929507807014</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B34,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E34)))</f>
         <v>0.76361929507807014</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B35,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E35)))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B35,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E35)))</f>
         <v>0</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B35,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E35)))</f>
         <v>0</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B35,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E35)))</f>
         <v>0</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B36,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E36)))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B36,COP!$G$2:$G$500,'Ambient Heat'!G$4,COP!$D$2:$D$500,$E36)))</f>
         <v>0</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B36,COP!$G$2:$G$500,'Ambient Heat'!H$4,COP!$D$2:$D$500,$E36)))</f>
         <v>0</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B36,COP!$G$2:$G$500,'Ambient Heat'!I$4,COP!$D$2:$D$500,$E36)))</f>
         <v>0</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="40">
         <v>5</v>
       </c>
     </row>
@@ -6440,26 +6423,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.109375" style="4"/>
+    <col min="19" max="19" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6469,13 +6452,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6497,33 +6480,26 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6533,7 +6509,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6543,7 +6519,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6553,7 +6529,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6563,7 +6539,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6573,7 +6549,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6583,7 +6559,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6593,7 +6569,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6603,7 +6579,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6613,7 +6589,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6623,7 +6599,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6633,7 +6609,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6660,13 +6636,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6724,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6765,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6830,7 +6806,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6871,7 +6847,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6888,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6953,7 +6929,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6970,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7011,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7076,7 +7052,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7117,7 +7093,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7134,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7175,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7240,7 +7216,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7281,7 +7257,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7322,7 +7298,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7339,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7404,7 +7380,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7445,7 +7421,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7462,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +7503,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7568,7 +7544,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7585,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7626,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +7667,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7732,7 +7708,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7773,7 +7749,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7814,7 +7790,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7831,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7896,7 +7872,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7937,7 +7913,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7978,7 +7954,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +7995,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8036,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8101,7 +8077,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8142,7 +8118,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8183,7 +8159,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8224,7 +8200,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8265,7 +8241,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8306,7 +8282,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8347,7 +8323,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8388,7 +8364,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8429,7 +8405,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8470,7 +8446,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8511,7 +8487,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8552,7 +8528,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8593,7 +8569,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8634,7 +8610,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8651,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8716,7 +8692,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8757,7 +8733,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8798,7 +8774,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8839,7 +8815,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8880,7 +8856,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8921,7 +8897,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8962,7 +8938,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +8979,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9044,7 +9020,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9061,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9102,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9167,7 +9143,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9208,7 +9184,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9249,7 +9225,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9290,7 +9266,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9331,7 +9307,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9372,7 +9348,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9413,7 +9389,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9454,7 +9430,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9495,7 +9471,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9512,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9577,7 +9553,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9618,7 +9594,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9659,7 +9635,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9700,7 +9676,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9741,7 +9717,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9758,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9823,7 +9799,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9840,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9905,7 +9881,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9946,7 +9922,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9987,7 +9963,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10028,7 +10004,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10045,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10110,7 +10086,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10151,7 +10127,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10192,7 +10168,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10233,7 +10209,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10274,7 +10250,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10315,7 +10291,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10356,7 +10332,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10397,7 +10373,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10414,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10479,7 +10455,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10520,7 +10496,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10561,7 +10537,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10602,7 +10578,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10619,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10684,7 +10660,7 @@
         <v>2.9301913321117103</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10701,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10766,7 +10742,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10807,7 +10783,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10848,7 +10824,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10889,7 +10865,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10930,7 +10906,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10971,7 +10947,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -11012,7 +10988,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11053,7 +11029,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11094,7 +11070,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11111,7 @@
         <v>3.3880337277541455</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11176,7 +11152,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11217,7 +11193,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11258,7 +11234,7 @@
         <v>1.9229380616983038</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11275,7 @@
         <v>2.1152318678681343</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11340,7 +11316,7 @@
         <v>2.3716236094279073</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11381,7 +11357,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11398,7 @@
         <v>2.5639174155977376</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11439,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11504,7 +11480,7 @@
         <v>2.994289267501645</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11545,7 +11521,7 @@
         <v>3.3111162052862135</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11586,7 +11562,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11627,7 +11603,7 @@
         <v>3.5528569901854286</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11668,7 +11644,7 @@
         <v>3.8046703077887871</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11709,7 +11685,7 @@
         <v>4.0065788042671091</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11750,7 +11726,7 @@
         <v>4.0573993101834214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11791,7 +11767,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11832,7 +11808,7 @@
         <v>4.2304637357362687</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11849,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11914,7 +11890,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11955,7 +11931,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11996,7 +11972,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12037,7 +12013,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12078,7 +12054,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12119,7 +12095,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12160,7 +12136,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12177,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12242,7 +12218,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12283,7 +12259,7 @@
         <v>3.0217598112401922</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12324,7 +12300,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12365,7 +12341,7 @@
         <v>3.6627391651396173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12406,7 +12382,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12447,7 +12423,7 @@
         <v>4.1205815607820799</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12488,7 +12464,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12529,7 +12505,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12570,7 +12546,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12611,7 +12587,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12652,7 +12628,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12669,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12734,7 +12710,7 @@
         <v>2.8386228529832018</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12775,7 +12751,7 @@
         <v>3.1133282903686732</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12816,7 +12792,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +12833,7 @@
         <v>3.2048967694971826</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12898,7 +12874,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12939,7 +12915,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12980,7 +12956,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -13021,7 +12997,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13062,7 +13038,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13103,7 +13079,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13144,7 +13120,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13185,7 +13161,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13226,7 +13202,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13267,7 +13243,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13308,7 +13284,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13325,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13390,7 +13366,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13431,7 +13407,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13472,7 +13448,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13513,7 +13489,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13554,7 +13530,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13595,7 +13571,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13636,7 +13612,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA1850B-8A5C-4F17-B40A-BDAEF5F2F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2667C45-D765-4EC3-B54F-5DFE97286EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -2067,21 +2067,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6328125" style="44" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" style="44" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" style="44" customWidth="1"/>
+    <col min="1" max="4" width="21.5703125" style="44" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="44" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="44" customWidth="1"/>
     <col min="13" max="13" width="10" style="44" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="44"/>
+    <col min="14" max="14" width="11.42578125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="44" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="42"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2109,7 +2109,7 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2137,7 +2137,7 @@
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2165,7 +2165,7 @@
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2193,7 +2193,7 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2221,7 +2221,7 @@
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2249,7 +2249,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -2277,7 +2277,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -2305,7 +2305,7 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -2333,7 +2333,7 @@
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -2361,7 +2361,7 @@
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -2389,7 +2389,7 @@
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -2417,7 +2417,7 @@
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2445,7 +2445,7 @@
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -2473,7 +2473,7 @@
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -2501,7 +2501,7 @@
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>158</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -2559,7 +2559,7 @@
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -2587,7 +2587,7 @@
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>159</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>160</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -2711,7 +2711,7 @@
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>161</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -2769,7 +2769,7 @@
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -2797,7 +2797,7 @@
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>162</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -2857,7 +2857,7 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -2885,7 +2885,7 @@
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>163</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>164</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>166</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="57" t="s">
         <v>168</v>
@@ -3011,7 +3011,7 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -3039,7 +3039,7 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -3067,7 +3067,7 @@
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -3095,7 +3095,7 @@
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -3123,7 +3123,7 @@
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -3151,7 +3151,7 @@
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -3179,7 +3179,7 @@
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -3207,7 +3207,7 @@
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -3235,7 +3235,7 @@
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -3263,7 +3263,7 @@
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -3291,7 +3291,7 @@
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -3319,7 +3319,7 @@
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -3347,7 +3347,7 @@
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3375,7 +3375,7 @@
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -3403,7 +3403,7 @@
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -3431,7 +3431,7 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -3459,7 +3459,7 @@
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -3487,7 +3487,7 @@
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -3515,7 +3515,7 @@
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -3543,7 +3543,7 @@
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -3571,7 +3571,7 @@
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -3599,7 +3599,7 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -3627,7 +3627,7 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -3655,7 +3655,7 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -3683,7 +3683,7 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -3711,7 +3711,7 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -3739,7 +3739,7 @@
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -3767,7 +3767,7 @@
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -3795,7 +3795,7 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -3823,7 +3823,7 @@
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -3851,7 +3851,7 @@
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -3879,7 +3879,7 @@
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -3907,7 +3907,7 @@
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -3935,7 +3935,7 @@
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -3963,7 +3963,7 @@
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -3991,7 +3991,7 @@
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -4019,7 +4019,7 @@
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -4047,7 +4047,7 @@
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -4075,7 +4075,7 @@
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -4103,7 +4103,7 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -4131,7 +4131,7 @@
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -4159,7 +4159,7 @@
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -4187,7 +4187,7 @@
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4215,7 +4215,7 @@
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -4243,7 +4243,7 @@
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -4271,7 +4271,7 @@
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -4299,7 +4299,7 @@
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -4327,7 +4327,7 @@
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -4355,7 +4355,7 @@
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -4383,7 +4383,7 @@
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -4411,7 +4411,7 @@
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -4439,7 +4439,7 @@
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -4467,7 +4467,7 @@
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -4495,7 +4495,7 @@
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -4523,7 +4523,7 @@
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -4551,7 +4551,7 @@
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -4579,7 +4579,7 @@
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -4607,7 +4607,7 @@
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -4635,7 +4635,7 @@
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -4663,7 +4663,7 @@
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -4691,7 +4691,7 @@
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -4719,7 +4719,7 @@
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -4747,7 +4747,7 @@
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -4775,7 +4775,7 @@
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -4803,7 +4803,7 @@
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -4831,7 +4831,7 @@
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -4859,7 +4859,7 @@
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -4918,26 +4918,26 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="3" width="27.36328125" customWidth="1"/>
-    <col min="7" max="7" width="42.6328125" customWidth="1"/>
-    <col min="8" max="8" width="56.6328125" customWidth="1"/>
-    <col min="9" max="9" width="101.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -4956,13 +4956,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -4993,38 +4993,38 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="61" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="62"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>50</v>
       </c>
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="28"/>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>55</v>
       </c>
@@ -5065,14 +5065,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
@@ -5090,14 +5090,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>64</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>66</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -5124,14 +5124,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>78</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>82</v>
       </c>
@@ -5194,12 +5194,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>91</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>94</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>97</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>19</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>104</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>106</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>115</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>17</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
         <v>18</v>
       </c>
@@ -5386,31 +5386,31 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.08984375" style="4"/>
-    <col min="10" max="10" width="8.6328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="6" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="8.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="4"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5439,12 +5439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>148</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>154</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>149</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="35" t="s">
         <v>136</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>155</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>150</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>148</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>156</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="I32" s="41"/>
       <c r="J32" s="38"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>149</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>136</v>
       </c>
@@ -6423,26 +6423,26 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.08984375" style="4"/>
-    <col min="19" max="19" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.08984375" style="4"/>
+    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6452,13 +6452,13 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
@@ -6493,13 +6493,13 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6509,7 +6509,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6519,7 +6519,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6529,7 +6529,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6539,7 +6539,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6549,7 +6549,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6559,7 +6559,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6569,7 +6569,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6579,7 +6579,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6589,7 +6589,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6599,7 +6599,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6609,7 +6609,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6636,13 +6636,13 @@
       <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>2.2400000000000069</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>2.2400000000000069</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>1.6170000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1.8129999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>1.9599999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1.9599999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>2.531199999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2.7159999999999931</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>2.7159999999999931</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>2.9085000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>3.0628500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>3.1017000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>3.2340000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>3.2340000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>2.1699999999999933</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>2.3799999999999932</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>2.2400000000000069</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>2.2400000000000069</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>2.5899999999999932</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>1.6170000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1.8129999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>1.9599999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>1.9599999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>2.531199999999993</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>2.7159999999999931</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>2.7159999999999931</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>2.9085000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>3.0628500000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>3.1017000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>3.2340000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>3.2340000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>3.0213118743951224</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>3.6621962113880175</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>4.1199707378115304</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>2.3100000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>2.7999999999999932</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>2.8382020638257122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>3.1128667796798135</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>3.2044216849645331</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>2.1699999999999933</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>2.3799999999999932</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>2.4500000000000073</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>1.0230831673189618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>1.098867105638881</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>1.288326951438691</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>0.58390584482113206</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>0.62715812962269724</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>0.73528884162661301</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>1.1367590747988445</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1.1746510439588003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>1.2125430131187638</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0.64878427202347866</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>152</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>0.67041041442426386</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>0.69203655682504261</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>152</v>
       </c>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2667C45-D765-4EC3-B54F-5DFE97286EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6766CF79-08BE-4FDC-AF69-7E1DDBFD82AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{24C11528-D002-463A-994E-9F1C7B8997EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="37" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Cooking</t>
   </si>
   <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
     <t>CEFF</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>deact~TFM_Fill-R: w=COP; Hcol=Region</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2063,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>165</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="58" t="s">
         <v>166</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>167</v>
       </c>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -2984,7 +2984,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
@@ -4929,7 +4929,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -4950,10 +4950,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -5003,7 +5003,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="62"/>
     </row>
@@ -5019,114 +5019,114 @@
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="28"/>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5137,77 +5137,77 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5218,51 +5218,51 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5270,10 +5270,10 @@
         <v>19</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5281,65 +5281,65 @@
         <v>13</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -5347,10 +5347,10 @@
         <v>17</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5358,10 +5358,10 @@
         <v>18</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5402,26 +5402,26 @@
   <sheetData>
     <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="36">
         <v>2018</v>
@@ -5441,21 +5441,21 @@
     </row>
     <row r="5" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F6" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B6,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E6)))</f>
@@ -5479,16 +5479,16 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B7,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E7)))</f>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B8,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E8)))</f>
@@ -5545,16 +5545,16 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B9,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E9)))</f>
@@ -5578,16 +5578,16 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B10,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E10)))</f>
@@ -5611,16 +5611,16 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B11,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E11)))</f>
@@ -5644,16 +5644,16 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B12,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E12)))</f>
@@ -5677,16 +5677,16 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B13,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E13)))</f>
@@ -5710,16 +5710,16 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B14,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E14)))</f>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B15,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E15)))</f>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5789,16 +5789,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F17" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B17,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E17)))</f>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B18,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E18)))</f>
@@ -5855,16 +5855,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B19,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E19)))</f>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B20,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E20)))</f>
@@ -5921,16 +5921,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B21,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E21)))</f>
@@ -5954,16 +5954,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B22,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E22)))</f>
@@ -5987,16 +5987,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B23,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E23)))</f>
@@ -6020,16 +6020,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B24,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E24)))</f>
@@ -6053,16 +6053,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B25,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E25)))</f>
@@ -6086,16 +6086,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>45</v>
-      </c>
       <c r="E26" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B26,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E26)))</f>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B28,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E28)))</f>
@@ -6165,16 +6165,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B29,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E29)))</f>
@@ -6198,16 +6198,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B30,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E30)))</f>
@@ -6231,16 +6231,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B31,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E31)))</f>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -6277,16 +6277,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B33,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E33)))</f>
@@ -6310,16 +6310,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B34,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E34)))</f>
@@ -6343,16 +6343,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="37">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B35,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E35)))</f>
@@ -6376,16 +6376,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="39">
         <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$500,COP!$C$2:$C$500,'Ambient Heat'!$B36,COP!$G$2:$G$500,'Ambient Heat'!F$4,COP!$D$2:$D$500,$E36)))</f>
@@ -6419,8 +6419,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="H2"/>
     </row>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -6685,22 +6685,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2018</v>
@@ -6726,22 +6726,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2020</v>
@@ -6767,22 +6767,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2030</v>
@@ -6808,22 +6808,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2040</v>
@@ -6849,22 +6849,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
         <v>125</v>
       </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2050</v>
@@ -6890,22 +6890,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -6931,22 +6931,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>2020</v>
@@ -6972,22 +6972,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>2030</v>
@@ -7013,22 +7013,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2040</v>
@@ -7054,22 +7054,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2050</v>
@@ -7095,22 +7095,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>2018</v>
@@ -7136,22 +7136,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>2020</v>
@@ -7177,22 +7177,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2030</v>
@@ -7218,22 +7218,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2040</v>
@@ -7259,22 +7259,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2050</v>
@@ -7300,22 +7300,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -7341,22 +7341,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2020</v>
@@ -7382,22 +7382,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2030</v>
@@ -7423,22 +7423,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2040</v>
@@ -7464,22 +7464,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>2050</v>
@@ -7505,22 +7505,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -7546,22 +7546,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>2020</v>
@@ -7587,22 +7587,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>2030</v>
@@ -7628,22 +7628,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2040</v>
@@ -7669,22 +7669,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2050</v>
@@ -7710,22 +7710,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -7751,22 +7751,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2020</v>
@@ -7792,22 +7792,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2030</v>
@@ -7833,22 +7833,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2040</v>
@@ -7874,22 +7874,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>2050</v>
@@ -7915,22 +7915,22 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2018</v>
@@ -7956,22 +7956,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2020</v>
@@ -7997,22 +7997,22 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2030</v>
@@ -8038,22 +8038,22 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>2040</v>
@@ -8079,22 +8079,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>2050</v>
@@ -8120,22 +8120,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -8161,22 +8161,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>2020</v>
@@ -8202,22 +8202,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>2030</v>
@@ -8243,22 +8243,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2040</v>
@@ -8284,22 +8284,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>2050</v>
@@ -8325,22 +8325,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -8366,22 +8366,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>2020</v>
@@ -8407,22 +8407,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2030</v>
@@ -8448,22 +8448,22 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>2040</v>
@@ -8489,22 +8489,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2050</v>
@@ -8530,22 +8530,22 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2018</v>
@@ -8571,22 +8571,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>2020</v>
@@ -8612,22 +8612,22 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>2030</v>
@@ -8653,22 +8653,22 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>2040</v>
@@ -8694,22 +8694,22 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>2050</v>
@@ -8735,22 +8735,22 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
         <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>2018</v>
@@ -8776,22 +8776,22 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>2020</v>
@@ -8817,22 +8817,22 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>2030</v>
@@ -8858,22 +8858,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>2040</v>
@@ -8899,22 +8899,22 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2050</v>
@@ -8940,22 +8940,22 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>2018</v>
@@ -8981,22 +8981,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>2020</v>
@@ -9022,22 +9022,22 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>2030</v>
@@ -9063,22 +9063,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>2040</v>
@@ -9104,22 +9104,22 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>2050</v>
@@ -9145,22 +9145,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>2018</v>
@@ -9186,22 +9186,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>2020</v>
@@ -9227,22 +9227,22 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>2030</v>
@@ -9268,22 +9268,22 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
         <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>2040</v>
@@ -9309,22 +9309,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2050</v>
@@ -9350,22 +9350,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>2018</v>
@@ -9391,22 +9391,22 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>2020</v>
@@ -9432,22 +9432,22 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>2030</v>
@@ -9473,22 +9473,22 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
         <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>2040</v>
@@ -9514,22 +9514,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>2050</v>
@@ -9555,22 +9555,22 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2018</v>
@@ -9596,22 +9596,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
         <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>2020</v>
@@ -9637,22 +9637,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2030</v>
@@ -9678,22 +9678,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>2040</v>
@@ -9719,22 +9719,22 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
         <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>2050</v>
@@ -9760,22 +9760,22 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
         <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>2018</v>
@@ -9801,22 +9801,22 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
         <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>2020</v>
@@ -9842,22 +9842,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
         <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>2030</v>
@@ -9883,22 +9883,22 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
         <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>2040</v>
@@ -9924,22 +9924,22 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>2050</v>
@@ -9965,22 +9965,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
         <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>2018</v>
@@ -10006,22 +10006,22 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" t="s">
         <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>2020</v>
@@ -10047,22 +10047,22 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
         <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>2030</v>
@@ -10088,22 +10088,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
         <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>2040</v>
@@ -10129,22 +10129,22 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>2050</v>
@@ -10170,22 +10170,22 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" t="s">
         <v>137</v>
       </c>
-      <c r="D87" t="s">
-        <v>138</v>
-      </c>
       <c r="E87" t="s">
         <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2018</v>
@@ -10211,22 +10211,22 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" t="s">
         <v>137</v>
       </c>
-      <c r="D88" t="s">
-        <v>138</v>
-      </c>
       <c r="E88" t="s">
         <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>2020</v>
@@ -10252,22 +10252,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" t="s">
         <v>137</v>
       </c>
-      <c r="D89" t="s">
-        <v>138</v>
-      </c>
       <c r="E89" t="s">
         <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2030</v>
@@ -10293,22 +10293,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
         <v>137</v>
       </c>
-      <c r="D90" t="s">
-        <v>138</v>
-      </c>
       <c r="E90" t="s">
         <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2040</v>
@@ -10334,22 +10334,22 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" t="s">
         <v>137</v>
       </c>
-      <c r="D91" t="s">
-        <v>138</v>
-      </c>
       <c r="E91" t="s">
         <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>2050</v>
@@ -10375,22 +10375,22 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2018</v>
@@ -10416,22 +10416,22 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
         <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2020</v>
@@ -10457,22 +10457,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
         <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>2030</v>
@@ -10498,22 +10498,22 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E95" t="s">
         <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>2040</v>
@@ -10539,22 +10539,22 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
         <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>2050</v>
@@ -10580,22 +10580,22 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" t="s">
         <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>2018</v>
@@ -10621,22 +10621,22 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>2020</v>
@@ -10662,22 +10662,22 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
         <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>2030</v>
@@ -10703,22 +10703,22 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>2040</v>
@@ -10744,22 +10744,22 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>2050</v>
@@ -10785,22 +10785,22 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>2018</v>
@@ -10826,22 +10826,22 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E103" t="s">
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>2020</v>
@@ -10867,22 +10867,22 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E104" t="s">
         <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>2030</v>
@@ -10908,22 +10908,22 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E105" t="s">
         <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>2040</v>
@@ -10949,22 +10949,22 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
         <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>2050</v>
@@ -10990,22 +10990,22 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>2018</v>
@@ -11031,22 +11031,22 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>2020</v>
@@ -11072,22 +11072,22 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>2030</v>
@@ -11113,22 +11113,22 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2040</v>
@@ -11154,22 +11154,22 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2050</v>
@@ -11195,22 +11195,22 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>2018</v>
@@ -11236,22 +11236,22 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>2020</v>
@@ -11277,22 +11277,22 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>2030</v>
@@ -11318,22 +11318,22 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>2040</v>
@@ -11359,22 +11359,22 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>2050</v>
@@ -11400,22 +11400,22 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>2018</v>
@@ -11441,22 +11441,22 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>2020</v>
@@ -11482,22 +11482,22 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>2030</v>
@@ -11523,22 +11523,22 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>2040</v>
@@ -11564,22 +11564,22 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>2050</v>
@@ -11605,22 +11605,22 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>2018</v>
@@ -11646,22 +11646,22 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>2020</v>
@@ -11687,22 +11687,22 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>2030</v>
@@ -11728,22 +11728,22 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>2040</v>
@@ -11769,22 +11769,22 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>2050</v>
@@ -11810,22 +11810,22 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>2018</v>
@@ -11851,22 +11851,22 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2020</v>
@@ -11892,22 +11892,22 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>2030</v>
@@ -11933,22 +11933,22 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>2040</v>
@@ -11974,22 +11974,22 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>2050</v>
@@ -12015,22 +12015,22 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>2018</v>
@@ -12056,22 +12056,22 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E133" t="s">
         <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>2020</v>
@@ -12097,22 +12097,22 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
         <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2030</v>
@@ -12138,22 +12138,22 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
         <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2040</v>
@@ -12179,22 +12179,22 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>2050</v>
@@ -12220,22 +12220,22 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>2018</v>
@@ -12261,22 +12261,22 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>2020</v>
@@ -12302,22 +12302,22 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>2030</v>
@@ -12343,22 +12343,22 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
         <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>2040</v>
@@ -12384,22 +12384,22 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E141" t="s">
         <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>2050</v>
@@ -12425,22 +12425,22 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E142" t="s">
         <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2018</v>
@@ -12466,22 +12466,22 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2020</v>
@@ -12507,22 +12507,22 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
         <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>2030</v>
@@ -12548,22 +12548,22 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
         <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>2040</v>
@@ -12589,22 +12589,22 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E146" t="s">
         <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>2050</v>
@@ -12630,22 +12630,22 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E147" t="s">
         <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>2018</v>
@@ -12671,22 +12671,22 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>2020</v>
@@ -12712,22 +12712,22 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
         <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>2030</v>
@@ -12753,22 +12753,22 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
         <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>2040</v>
@@ -12794,22 +12794,22 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>2050</v>
@@ -12835,22 +12835,22 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E152" t="s">
         <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>2018</v>
@@ -12876,22 +12876,22 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E153" t="s">
         <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>2020</v>
@@ -12917,22 +12917,22 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E154" t="s">
         <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>2030</v>
@@ -12958,22 +12958,22 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E155" t="s">
         <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>2040</v>
@@ -12999,22 +12999,22 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E156" t="s">
         <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>2050</v>
@@ -13040,22 +13040,22 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E157" t="s">
         <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>2018</v>
@@ -13081,22 +13081,22 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D158" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E158" t="s">
         <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>2020</v>
@@ -13122,22 +13122,22 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E159" t="s">
         <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>2030</v>
@@ -13163,22 +13163,22 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E160" t="s">
         <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>2040</v>
@@ -13204,22 +13204,22 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E161" t="s">
         <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>2050</v>
@@ -13245,22 +13245,22 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>2018</v>
@@ -13286,22 +13286,22 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E163" t="s">
         <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>2020</v>
@@ -13327,22 +13327,22 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E164" t="s">
         <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>2030</v>
@@ -13368,22 +13368,22 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>2040</v>
@@ -13409,22 +13409,22 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E166" t="s">
         <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>2050</v>
@@ -13450,22 +13450,22 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E167" t="s">
         <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>2018</v>
@@ -13491,22 +13491,22 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C168" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E168" t="s">
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>2020</v>
@@ -13532,22 +13532,22 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E169" t="s">
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>2030</v>
@@ -13573,22 +13573,22 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E170" t="s">
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>2040</v>
@@ -13614,22 +13614,22 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D171" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E171" t="s">
         <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171">
         <v>2050</v>
@@ -13659,6 +13659,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13667,7 +13673,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -13864,13 +13870,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13878,7 +13887,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42758C89-CF33-4130-A0A6-B2C8CC23682B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13895,13 +13904,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
     <t>attribute</t>
   </si>
   <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>National</t>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2030</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
     <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149920001626015"/>
+        <fgColor theme="0" tint="-0.149910002946854"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4608" t="8923" r="7736" b="12915"/>
+        <a:srcRect l="4606" t="8921" r="7734" b="12913"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1358" t="6553" r="4000" b="6326"/>
+        <a:srcRect l="1356" t="6552" r="3999" b="6324"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3988" t="26188" r="3988" b="26187"/>
+        <a:srcRect l="3987" t="26187" r="3987" b="26185"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,48 +6685,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G73" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G88" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G102" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G103" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G107" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G108" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G117" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G123" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G127" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G132" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G133" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G135" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G137" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G138" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G143" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G145" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G148" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G150" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G152" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G153" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G160" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G162" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G163" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G165" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G167" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G168" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="H170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,25 +13667,25 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
     <t>SRVSC-CS</t>
   </si>
   <si>
-    <t>SRV_NewTechs</t>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>stage</t>
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499889999628067"/>
+      <color theme="7" tint="-0.499799996614456"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499889999628067"/>
+      <color theme="7" tint="-0.499799996614456"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149910002946854"/>
+        <fgColor theme="0" tint="-0.149819999933243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4606" t="8921" r="7734" b="12913"/>
+        <a:srcRect l="4592" t="8908" r="7720" b="12899"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1356" t="6552" r="3999" b="6324"/>
+        <a:srcRect l="1342" t="6538" r="3985" b="6311"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3987" t="26187" r="3987" b="26185"/>
+        <a:srcRect l="3973" t="26173" r="3973" b="26171"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,48 +6685,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K122" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K124" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F129" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K133" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I134" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J134" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K134" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K136" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K137" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H139" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I139" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J139" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K139" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H140" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J140" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K140" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K141" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K142" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I143" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K143" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H145" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J145" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K145" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K146" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K147" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K148" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I152" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J152" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I153" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J153" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K153" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F161" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H170" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J170" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K170" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,25 +13667,25 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H171" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J171" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K171" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>process</t>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>scenario</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499799996614456"/>
+      <color theme="7" tint="-0.499779999256134"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499799996614456"/>
+      <color theme="7" tint="-0.499779999256134"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149819999933243"/>
+        <fgColor theme="0" tint="-0.149800002574921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4592" t="8908" r="7720" b="12899"/>
+        <a:srcRect l="4589" t="8905" r="7717" b="12896"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1342" t="6538" r="3985" b="6311"/>
+        <a:srcRect l="1339" t="6535" r="3982" b="6307"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3973" t="26173" r="3973" b="26171"/>
+        <a:srcRect l="3970" t="26170" r="3970" b="26168"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,34 +6685,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" t="s">
-        <v>175</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>152</v>
-      </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
-        <v>152</v>
-      </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" t="s">
-        <v>152</v>
-      </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
-        <v>152</v>
-      </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" t="s">
-        <v>152</v>
-      </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" t="s">
-        <v>152</v>
-      </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
         <v>30</v>
       </c>
-      <c r="G46" t="s">
-        <v>152</v>
-      </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
         <v>30</v>
       </c>
-      <c r="G51" t="s">
-        <v>152</v>
-      </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
         <v>30</v>
       </c>
-      <c r="G56" t="s">
-        <v>152</v>
-      </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
         <v>30</v>
       </c>
-      <c r="G61" t="s">
-        <v>152</v>
-      </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
         <v>30</v>
       </c>
-      <c r="G66" t="s">
-        <v>152</v>
-      </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
         <v>30</v>
       </c>
-      <c r="G71" t="s">
-        <v>152</v>
-      </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>30</v>
       </c>
-      <c r="G76" t="s">
-        <v>152</v>
-      </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
         <v>30</v>
       </c>
-      <c r="G81" t="s">
-        <v>152</v>
-      </c>
       <c r="H81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
         <v>30</v>
       </c>
-      <c r="G86" t="s">
-        <v>152</v>
-      </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
         <v>30</v>
       </c>
-      <c r="G91" t="s">
-        <v>152</v>
-      </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
       </c>
-      <c r="G96" t="s">
-        <v>152</v>
-      </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
         <v>30</v>
       </c>
-      <c r="G101" t="s">
-        <v>152</v>
-      </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s">
         <v>30</v>
       </c>
-      <c r="G106" t="s">
-        <v>152</v>
-      </c>
       <c r="H106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
         <v>30</v>
       </c>
-      <c r="G111" t="s">
-        <v>152</v>
-      </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
         <v>30</v>
       </c>
-      <c r="G116" t="s">
-        <v>152</v>
-      </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
       </c>
-      <c r="G121" t="s">
-        <v>152</v>
-      </c>
       <c r="H121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
         <v>30</v>
       </c>
-      <c r="G126" t="s">
-        <v>152</v>
-      </c>
       <c r="H126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
         <v>30</v>
       </c>
-      <c r="G131" t="s">
-        <v>152</v>
-      </c>
       <c r="H131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
         <v>30</v>
       </c>
-      <c r="G136" t="s">
-        <v>152</v>
-      </c>
       <c r="H136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
         <v>30</v>
       </c>
-      <c r="G141" t="s">
-        <v>152</v>
-      </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
         <v>30</v>
       </c>
-      <c r="G146" t="s">
-        <v>152</v>
-      </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
         <v>30</v>
       </c>
-      <c r="G151" t="s">
-        <v>152</v>
-      </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
         <v>30</v>
       </c>
-      <c r="G156" t="s">
-        <v>152</v>
-      </c>
       <c r="H156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K156" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" t="s">
         <v>30</v>
       </c>
-      <c r="G161" t="s">
-        <v>152</v>
-      </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" t="s">
         <v>30</v>
       </c>
-      <c r="G166" t="s">
-        <v>152</v>
-      </c>
       <c r="H166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K168" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,25 +13667,25 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
         <v>30</v>
       </c>
-      <c r="G171" t="s">
-        <v>152</v>
-      </c>
       <c r="H171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
     <t>commodity_group</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>currency</t>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
   </si>
   <si>
     <t>lim_type</t>
   </si>
   <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>2040</t>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499779999256134"/>
+      <color theme="7" tint="-0.499729990959167"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499779999256134"/>
+      <color theme="7" tint="-0.499729990959167"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149800002574921"/>
+        <fgColor theme="0" tint="-0.149749994277954"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4589" t="8905" r="7717" b="12896"/>
+        <a:srcRect l="4582" t="8897" r="7710" b="12889"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1339" t="6535" r="3982" b="6307"/>
+        <a:srcRect l="1332" t="6527" r="3974" b="6300"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3970" t="26170" r="3970" b="26168"/>
+        <a:srcRect l="3962" t="26162" r="3962" b="26161"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,48 +6685,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G84" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G89" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G99" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G105" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G108" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G109" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G110" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G115" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K116" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G119" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K120" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K121" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G123" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K125" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K126" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G129" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G133" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G138" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K138" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G139" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K140" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K141" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G143" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G144" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K144" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G145" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K145" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K146" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K147" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G148" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K148" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G149" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G150" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G153" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K153" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G154" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K154" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G155" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K155" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K156" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K157" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K158" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K159" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G160" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K160" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K161" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K162" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G163" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K163" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G164" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K164" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G165" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K165" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K167" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G168" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K168" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G169" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G170" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K170" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,25 +13667,25 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K171" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,472 +179,472 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>SRVSC-CS</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>SRV_NewTechs</t>
   </si>
   <si>
     <t>2040</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
   <si>
     <t>SRVSC-PU</t>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499729990959167"/>
+      <color theme="7" tint="-0.499610006809235"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499729990959167"/>
+      <color theme="7" tint="-0.499610006809235"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149749994277954"/>
+        <fgColor theme="0" tint="-0.14962999522686"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4582" t="8897" r="7710" b="12889"/>
+        <a:srcRect l="4563" t="8879" r="7691" b="12870"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1332" t="6527" r="3974" b="6300"/>
+        <a:srcRect l="1313" t="6509" r="3956" b="6282"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3962" t="26162" r="3962" b="26161"/>
+        <a:srcRect l="3944" t="26144" r="3944" b="26142"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6688,31 +6688,31 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>143</v>
       </c>
       <c r="I1" t="s">
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6741,10 +6741,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6782,10 +6782,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6823,10 +6823,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6905,10 +6905,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,16 +6940,16 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,16 +6981,16 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" t="s">
-        <v>175</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,16 +7022,16 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,16 +7063,16 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,16 +7104,16 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7151,10 +7151,10 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7192,10 +7192,10 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>173</v>
-      </c>
-      <c r="G13" t="s">
-        <v>175</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7233,10 +7233,10 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7274,10 +7274,10 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7315,10 +7315,10 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7356,10 +7356,10 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7397,10 +7397,10 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>173</v>
-      </c>
-      <c r="G18" t="s">
-        <v>175</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7438,10 +7438,10 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7479,10 +7479,10 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7520,10 +7520,10 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7561,10 +7561,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7602,10 +7602,10 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
         <v>173</v>
-      </c>
-      <c r="G23" t="s">
-        <v>175</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7643,10 +7643,10 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7684,10 +7684,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7725,10 +7725,10 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7766,10 +7766,10 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7807,10 +7807,10 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
         <v>173</v>
-      </c>
-      <c r="G28" t="s">
-        <v>175</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7848,10 +7848,10 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7889,10 +7889,10 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
         <v>23</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7930,10 +7930,10 @@
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
         <v>23</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7971,10 +7971,10 @@
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8012,10 +8012,10 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
         <v>173</v>
-      </c>
-      <c r="G33" t="s">
-        <v>175</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8053,10 +8053,10 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8094,10 +8094,10 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8135,10 +8135,10 @@
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
         <v>23</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8176,10 +8176,10 @@
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H37" t="s">
         <v>23</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8217,10 +8217,10 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
         <v>173</v>
-      </c>
-      <c r="G38" t="s">
-        <v>175</v>
       </c>
       <c r="H38" t="s">
         <v>23</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8258,10 +8258,10 @@
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
         <v>23</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8299,10 +8299,10 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
         <v>23</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8340,10 +8340,10 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
         <v>23</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8381,10 +8381,10 @@
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
         <v>23</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8422,10 +8422,10 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
         <v>173</v>
-      </c>
-      <c r="G43" t="s">
-        <v>175</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8463,10 +8463,10 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8504,10 +8504,10 @@
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H45" t="s">
         <v>23</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8545,10 +8545,10 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,16 +8580,16 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,16 +8621,16 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
       </c>
       <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
         <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>175</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,16 +8662,16 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,16 +8703,16 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
         <v>23</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,16 +8744,16 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
         <v>23</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8791,10 +8791,10 @@
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8832,10 +8832,10 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
         <v>173</v>
-      </c>
-      <c r="G53" t="s">
-        <v>175</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8873,10 +8873,10 @@
         <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8914,10 +8914,10 @@
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8955,10 +8955,10 @@
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,16 +8990,16 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,16 +9031,16 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
       </c>
       <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
         <v>173</v>
-      </c>
-      <c r="G58" t="s">
-        <v>175</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,16 +9072,16 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,16 +9113,16 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,16 +9154,16 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9201,10 +9201,10 @@
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9242,10 +9242,10 @@
         <v>23</v>
       </c>
       <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
         <v>173</v>
-      </c>
-      <c r="G63" t="s">
-        <v>175</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9283,10 +9283,10 @@
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9324,10 +9324,10 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9365,10 +9365,10 @@
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H66" t="s">
         <v>23</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9406,10 +9406,10 @@
         <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9447,10 +9447,10 @@
         <v>23</v>
       </c>
       <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
         <v>173</v>
-      </c>
-      <c r="G68" t="s">
-        <v>175</v>
       </c>
       <c r="H68" t="s">
         <v>23</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9488,10 +9488,10 @@
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
         <v>23</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9529,10 +9529,10 @@
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H70" t="s">
         <v>23</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9570,10 +9570,10 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H71" t="s">
         <v>23</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9611,10 +9611,10 @@
         <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H72" t="s">
         <v>23</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9652,10 +9652,10 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
         <v>173</v>
-      </c>
-      <c r="G73" t="s">
-        <v>175</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9693,10 +9693,10 @@
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
         <v>23</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9734,10 +9734,10 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9775,10 +9775,10 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H76" t="s">
         <v>23</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9816,10 +9816,10 @@
         <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H77" t="s">
         <v>23</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9857,10 +9857,10 @@
         <v>23</v>
       </c>
       <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
         <v>173</v>
-      </c>
-      <c r="G78" t="s">
-        <v>175</v>
       </c>
       <c r="H78" t="s">
         <v>23</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9898,10 +9898,10 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9939,10 +9939,10 @@
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H80" t="s">
         <v>23</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9980,10 +9980,10 @@
         <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H81" t="s">
         <v>23</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10021,10 +10021,10 @@
         <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H82" t="s">
         <v>23</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10062,10 +10062,10 @@
         <v>23</v>
       </c>
       <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
         <v>173</v>
-      </c>
-      <c r="G83" t="s">
-        <v>175</v>
       </c>
       <c r="H83" t="s">
         <v>23</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10103,10 +10103,10 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H84" t="s">
         <v>23</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10144,10 +10144,10 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H85" t="s">
         <v>23</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10185,10 +10185,10 @@
         <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H86" t="s">
         <v>23</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10226,10 +10226,10 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10267,10 +10267,10 @@
         <v>23</v>
       </c>
       <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
         <v>173</v>
-      </c>
-      <c r="G88" t="s">
-        <v>175</v>
       </c>
       <c r="H88" t="s">
         <v>23</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10308,10 +10308,10 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10349,10 +10349,10 @@
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H90" t="s">
         <v>23</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10390,10 +10390,10 @@
         <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
         <v>23</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10431,10 +10431,10 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H92" t="s">
         <v>23</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10472,10 +10472,10 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
         <v>173</v>
-      </c>
-      <c r="G93" t="s">
-        <v>175</v>
       </c>
       <c r="H93" t="s">
         <v>23</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10513,10 +10513,10 @@
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
         <v>23</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10554,10 +10554,10 @@
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H95" t="s">
         <v>23</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10595,10 +10595,10 @@
         <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H96" t="s">
         <v>23</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10636,10 +10636,10 @@
         <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H97" t="s">
         <v>23</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10677,10 +10677,10 @@
         <v>23</v>
       </c>
       <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
         <v>173</v>
-      </c>
-      <c r="G98" t="s">
-        <v>175</v>
       </c>
       <c r="H98" t="s">
         <v>23</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10718,10 +10718,10 @@
         <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
         <v>23</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10759,10 +10759,10 @@
         <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H100" t="s">
         <v>23</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10800,10 +10800,10 @@
         <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H101" t="s">
         <v>23</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10841,10 +10841,10 @@
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H102" t="s">
         <v>23</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10882,10 +10882,10 @@
         <v>23</v>
       </c>
       <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
         <v>173</v>
-      </c>
-      <c r="G103" t="s">
-        <v>175</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10923,10 +10923,10 @@
         <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
         <v>23</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10964,10 +10964,10 @@
         <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H105" t="s">
         <v>23</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11005,10 +11005,10 @@
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H106" t="s">
         <v>23</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11046,10 +11046,10 @@
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H107" t="s">
         <v>23</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11087,10 +11087,10 @@
         <v>23</v>
       </c>
       <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
         <v>173</v>
-      </c>
-      <c r="G108" t="s">
-        <v>175</v>
       </c>
       <c r="H108" t="s">
         <v>23</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11128,10 +11128,10 @@
         <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
         <v>23</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11169,10 +11169,10 @@
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H110" t="s">
         <v>23</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11210,10 +11210,10 @@
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H111" t="s">
         <v>23</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11251,10 +11251,10 @@
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H112" t="s">
         <v>23</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11292,10 +11292,10 @@
         <v>23</v>
       </c>
       <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
         <v>173</v>
-      </c>
-      <c r="G113" t="s">
-        <v>175</v>
       </c>
       <c r="H113" t="s">
         <v>23</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11333,10 +11333,10 @@
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H114" t="s">
         <v>23</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11374,10 +11374,10 @@
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H115" t="s">
         <v>23</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11415,10 +11415,10 @@
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H116" t="s">
         <v>23</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11456,10 +11456,10 @@
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H117" t="s">
         <v>23</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11497,10 +11497,10 @@
         <v>23</v>
       </c>
       <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
         <v>173</v>
-      </c>
-      <c r="G118" t="s">
-        <v>175</v>
       </c>
       <c r="H118" t="s">
         <v>23</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11538,10 +11538,10 @@
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
         <v>23</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11579,10 +11579,10 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H120" t="s">
         <v>23</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11620,10 +11620,10 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H121" t="s">
         <v>23</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11661,10 +11661,10 @@
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H122" t="s">
         <v>23</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11702,10 +11702,10 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
         <v>173</v>
-      </c>
-      <c r="G123" t="s">
-        <v>175</v>
       </c>
       <c r="H123" t="s">
         <v>23</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11743,10 +11743,10 @@
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H124" t="s">
         <v>23</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11784,10 +11784,10 @@
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H125" t="s">
         <v>23</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11825,10 +11825,10 @@
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H126" t="s">
         <v>23</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11866,10 +11866,10 @@
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H127" t="s">
         <v>23</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11907,10 +11907,10 @@
         <v>23</v>
       </c>
       <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
         <v>173</v>
-      </c>
-      <c r="G128" t="s">
-        <v>175</v>
       </c>
       <c r="H128" t="s">
         <v>23</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11948,10 +11948,10 @@
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H129" t="s">
         <v>23</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11989,10 +11989,10 @@
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H130" t="s">
         <v>23</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12030,10 +12030,10 @@
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H131" t="s">
         <v>23</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12071,10 +12071,10 @@
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H132" t="s">
         <v>23</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12112,10 +12112,10 @@
         <v>23</v>
       </c>
       <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
         <v>173</v>
-      </c>
-      <c r="G133" t="s">
-        <v>175</v>
       </c>
       <c r="H133" t="s">
         <v>23</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12153,10 +12153,10 @@
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H134" t="s">
         <v>23</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12194,10 +12194,10 @@
         <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G135" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H135" t="s">
         <v>23</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12235,10 +12235,10 @@
         <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
         <v>23</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12276,10 +12276,10 @@
         <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H137" t="s">
         <v>23</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12317,10 +12317,10 @@
         <v>23</v>
       </c>
       <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
         <v>173</v>
-      </c>
-      <c r="G138" t="s">
-        <v>175</v>
       </c>
       <c r="H138" t="s">
         <v>23</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12358,10 +12358,10 @@
         <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H139" t="s">
         <v>23</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12399,10 +12399,10 @@
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H140" t="s">
         <v>23</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12440,10 +12440,10 @@
         <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H141" t="s">
         <v>23</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12481,10 +12481,10 @@
         <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H142" t="s">
         <v>23</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12522,10 +12522,10 @@
         <v>23</v>
       </c>
       <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
         <v>173</v>
-      </c>
-      <c r="G143" t="s">
-        <v>175</v>
       </c>
       <c r="H143" t="s">
         <v>23</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12563,10 +12563,10 @@
         <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H144" t="s">
         <v>23</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12604,10 +12604,10 @@
         <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G145" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H145" t="s">
         <v>23</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12645,10 +12645,10 @@
         <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G146" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H146" t="s">
         <v>23</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12686,10 +12686,10 @@
         <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H147" t="s">
         <v>23</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12727,10 +12727,10 @@
         <v>23</v>
       </c>
       <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
         <v>173</v>
-      </c>
-      <c r="G148" t="s">
-        <v>175</v>
       </c>
       <c r="H148" t="s">
         <v>23</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12768,10 +12768,10 @@
         <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H149" t="s">
         <v>23</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12809,10 +12809,10 @@
         <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H150" t="s">
         <v>23</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12850,10 +12850,10 @@
         <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G151" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H151" t="s">
         <v>23</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12891,10 +12891,10 @@
         <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G152" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H152" t="s">
         <v>23</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12932,10 +12932,10 @@
         <v>23</v>
       </c>
       <c r="F153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
         <v>173</v>
-      </c>
-      <c r="G153" t="s">
-        <v>175</v>
       </c>
       <c r="H153" t="s">
         <v>23</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12973,10 +12973,10 @@
         <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H154" t="s">
         <v>23</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13014,10 +13014,10 @@
         <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H155" t="s">
         <v>23</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13055,10 +13055,10 @@
         <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H156" t="s">
         <v>23</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13096,10 +13096,10 @@
         <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H157" t="s">
         <v>23</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13137,10 +13137,10 @@
         <v>23</v>
       </c>
       <c r="F158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
         <v>173</v>
-      </c>
-      <c r="G158" t="s">
-        <v>175</v>
       </c>
       <c r="H158" t="s">
         <v>23</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13178,10 +13178,10 @@
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H159" t="s">
         <v>23</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13219,10 +13219,10 @@
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H160" t="s">
         <v>23</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13260,10 +13260,10 @@
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H161" t="s">
         <v>23</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13301,10 +13301,10 @@
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H162" t="s">
         <v>23</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13342,10 +13342,10 @@
         <v>23</v>
       </c>
       <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
         <v>173</v>
-      </c>
-      <c r="G163" t="s">
-        <v>175</v>
       </c>
       <c r="H163" t="s">
         <v>23</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13383,10 +13383,10 @@
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H164" t="s">
         <v>23</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13424,10 +13424,10 @@
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G165" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H165" t="s">
         <v>23</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13465,10 +13465,10 @@
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G166" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H166" t="s">
         <v>23</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13506,10 +13506,10 @@
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="H167" t="s">
         <v>23</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13547,10 +13547,10 @@
         <v>23</v>
       </c>
       <c r="F168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
         <v>173</v>
-      </c>
-      <c r="G168" t="s">
-        <v>175</v>
       </c>
       <c r="H168" t="s">
         <v>23</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13588,10 +13588,10 @@
         <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="H169" t="s">
         <v>23</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13629,10 +13629,10 @@
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H170" t="s">
         <v>23</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13670,10 +13670,10 @@
         <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G171" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="H171" t="s">
         <v>23</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
     <t>ANNUAL</t>
   </si>
   <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>sow</t>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
   </si>
   <si>
     <t>lim_type</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
+    <t>time_slice</t>
   </si>
   <si>
     <t>scenario</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499610006809235"/>
+      <color theme="7" tint="-0.49957999587059"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499610006809235"/>
+      <color theme="7" tint="-0.49957999587059"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14962999522686"/>
+        <fgColor theme="0" tint="-0.149599999189377"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4563" t="8879" r="7691" b="12870"/>
+        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1313" t="6509" r="3956" b="6282"/>
+        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3944" t="26144" r="3944" b="26142"/>
+        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,48 +6685,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G55" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G70" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G75" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G85" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K86" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K90" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I94" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K94" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K99" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K101" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I106" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I109" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K109" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I111" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K112" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G113" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H115" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I115" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G117" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K117" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G118" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G119" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H119" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I119" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K119" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G120" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I120" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K120" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K121" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G122" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K122" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G123" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H123" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I123" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K123" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G124" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G125" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H125" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I125" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K125" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G128" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I128" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K128" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G129" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K129" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G130" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I130" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K130" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I131" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K131" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G132" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I132" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K132" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G133" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G134" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I134" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K134" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G135" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K136" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G137" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H137" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K137" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G138" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H138" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K138" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G139" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H139" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I139" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K139" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G140" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H140" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K140" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K141" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G142" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K142" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G143" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K143" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G144" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H144" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I144" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J144" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K144" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G145" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G146" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I146" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K146" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K147" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G148" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G149" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H149" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I149" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K149" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G150" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H150" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I150" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K150" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I151" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K151" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G152" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K152" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G153" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H153" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J153" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K153" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G154" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H154" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I154" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K154" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G155" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G156" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K156" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H157" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I157" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K157" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G158" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H158" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I158" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K158" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G159" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H159" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I159" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J159" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K159" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G160" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I161" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K161" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G162" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I162" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K162" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G163" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I163" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J163" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K163" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G164" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I164" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J164" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K164" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G165" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H165" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I165" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J165" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K165" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G166" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H166" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I166" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J166" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K166" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G167" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I167" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J167" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K167" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G168" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="H168" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I168" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J168" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K168" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H169" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I169" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J169" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K169" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G170" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L170">
         <v>0.69203655682504261</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -13667,25 +13667,25 @@
         <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G171" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H171" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I171" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J171" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K171" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L171">
         <v>0.69203655682504261</v>

--- a/SuppXLS/Scen_B_SRV_UC.xlsx
+++ b/SuppXLS/Scen_B_SRV_UC.xlsx
@@ -179,475 +179,475 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>SRV_NewTechs</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Input to control ambient heat per unit of heat produced</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model (TIM)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>Cell colour legend</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Model input</t>
+  </si>
+  <si>
+    <t>Model input based on own assumptions</t>
+  </si>
+  <si>
+    <t>Calculated value (not recommended to directly modify)</t>
+  </si>
+  <si>
+    <t>Codes for processes and commodities names</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Short code</t>
+  </si>
+  <si>
+    <t>Full code</t>
+  </si>
+  <si>
+    <t>Sub-sectors</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Public Services</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Thermal uses</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Space cooling</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Other uses</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Building lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>OEL</t>
+  </si>
+  <si>
+    <t>Data centers</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Public lighting</t>
+  </si>
+  <si>
+    <t>PLIG</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>OTS</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Solids</t>
+  </si>
+  <si>
+    <t>SRVCOA</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>Ambient Heat</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>SRVWIN</t>
+  </si>
+  <si>
+    <t>Hydrogen (gaseous)</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen (liquid)</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>SRVH2L</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>SRVBDL</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>SRVETH</t>
+  </si>
+  <si>
+    <t>Veda fill table</t>
+  </si>
+  <si>
+    <t>SubRes data</t>
+  </si>
+  <si>
+    <t>Controller for Ambient Heat</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N5</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N2</t>
+  </si>
+  <si>
+    <t>SRVSH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N3</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N4</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N5</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N6</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N7</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N8</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_N9</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N6</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_N5</t>
+  </si>
+  <si>
+    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - SH</t>
+  </si>
+  <si>
+    <t>\I: Public services HPs -WH</t>
+  </si>
+  <si>
+    <t>\I: Commercial services HPs - WH</t>
+  </si>
+  <si>
+    <t>SRVAHT2</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify utilisation of ambient heat by heat pumps</t>
+  </si>
+  <si>
     <t>attribute</t>
   </si>
   <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>commodity</t>
+    <t>process</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRV_NewTechs</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=COP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>Input to control ambient heat per unit of heat produced</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>SRVAHT</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model (TIM)</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>Cell colour legend</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Model input</t>
-  </si>
-  <si>
-    <t>Model input based on own assumptions</t>
-  </si>
-  <si>
-    <t>Calculated value (not recommended to directly modify)</t>
-  </si>
-  <si>
-    <t>Codes for processes and commodities names</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Short code</t>
-  </si>
-  <si>
-    <t>Full code</t>
-  </si>
-  <si>
-    <t>Sub-sectors</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Public Services</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>Thermal uses</t>
-  </si>
-  <si>
-    <t>Space heating</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Water heating</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>Space cooling</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Other uses</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Building lighting</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Other appliances</t>
-  </si>
-  <si>
-    <t>OEL</t>
-  </si>
-  <si>
-    <t>Data centers</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Public lighting</t>
-  </si>
-  <si>
-    <t>PLIG</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>OTS</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Solids</t>
-  </si>
-  <si>
-    <t>SRVCOA</t>
-  </si>
-  <si>
-    <t>SRVLPG</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>SRVGAS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>SRVBIO</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>SRVBGS</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRVSOL</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>SRVELC</t>
-  </si>
-  <si>
-    <t>Ambient Heat</t>
-  </si>
-  <si>
-    <t>AHT</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>SRVHET</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>SRVWIN</t>
-  </si>
-  <si>
-    <t>Hydrogen (gaseous)</t>
-  </si>
-  <si>
-    <t>H2G</t>
-  </si>
-  <si>
-    <t>SRVH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen (liquid)</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>SRVH2L</t>
-  </si>
-  <si>
-    <t>BDL</t>
-  </si>
-  <si>
-    <t>SRVBDL</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>SRVETH</t>
-  </si>
-  <si>
-    <t>Veda fill table</t>
-  </si>
-  <si>
-    <t>SubRes data</t>
-  </si>
-  <si>
-    <t>Controller for Ambient Heat</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N5</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N2</t>
-  </si>
-  <si>
-    <t>SRVSH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N3</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N4</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N5</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N6</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N7</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N8</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_N9</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N6</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_N5</t>
-  </si>
-  <si>
-    <t>S-SH*ELC_N*, S-SH*GAS_N5, S-SH*GAS_N6, -*N1</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - SH</t>
-  </si>
-  <si>
-    <t>\I: Public services HPs -WH</t>
-  </si>
-  <si>
-    <t>\I: Commercial services HPs - WH</t>
-  </si>
-  <si>
-    <t>SRVAHT2</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Specify utilisation of ambient heat by heat pumps</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -791,14 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.49957999587059"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.49957999587059"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149599999189377"/>
+        <fgColor theme="0" tint="-0.149580001831055"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1452,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
+        <a:srcRect l="4556" t="8871" r="7684" b="12863"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
+        <a:srcRect l="1306" t="6501" r="3948" b="6274"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1622,7 +1622,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
+        <a:srcRect l="3936" t="26136" r="3936" b="26135"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6685,34 +6685,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -6738,25 +6738,25 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>2.1000000000000001</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -6779,25 +6779,25 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3">
         <v>2.2400000000000069</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6820,25 +6820,25 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>2.5899999999999932</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6861,25 +6861,25 @@
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>2.7999999999999932</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -6902,25 +6902,25 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
         <v>131</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>2.7999999999999932</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6940,28 +6940,28 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L7">
         <v>2.7466471585410202</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6981,28 +6981,28 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L8">
         <v>2.7466471585410202</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.75">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -7022,28 +7022,28 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L9">
         <v>2.7466471585410202</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -7063,28 +7063,28 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L10">
         <v>2.7466471585410202</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7104,28 +7104,28 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11">
         <v>2.7466471585410202</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -7148,25 +7148,25 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>2.1000000000000001</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7189,25 +7189,25 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <v>2.2400000000000069</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="14" spans="1:13" ht="12.75">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7230,25 +7230,25 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <v>2.5899999999999932</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -7271,25 +7271,25 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L15">
         <v>2.7999999999999932</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" ht="12.75">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -7312,25 +7312,25 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
         <v>131</v>
       </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L16">
         <v>2.7999999999999932</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -7353,25 +7353,25 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L17">
         <v>2.1000000000000001</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -7394,25 +7394,25 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L18">
         <v>2.3100000000000005</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -7435,25 +7435,25 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>2.5899999999999932</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -7476,25 +7476,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L20">
         <v>2.7999999999999932</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="21" spans="1:13" ht="12.75">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -7517,25 +7517,25 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L21">
         <v>2.7999999999999932</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -7558,25 +7558,25 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L22">
         <v>2.1000000000000001</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -7599,25 +7599,25 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L23">
         <v>2.3100000000000005</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.75">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -7640,25 +7640,25 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L24">
         <v>2.5899999999999932</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -7681,25 +7681,25 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L25">
         <v>2.7999999999999932</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -7722,25 +7722,25 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" t="s">
         <v>131</v>
       </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L26">
         <v>2.7999999999999932</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -7763,25 +7763,25 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L27">
         <v>1.47</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -7804,25 +7804,25 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L28">
         <v>1.6170000000000002</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -7845,25 +7845,25 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L29">
         <v>1.8129999999999993</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -7886,25 +7886,25 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L30">
         <v>1.9599999999999995</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -7927,25 +7927,25 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" t="s">
         <v>131</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <v>1.9599999999999995</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -7968,25 +7968,25 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L32">
         <v>2.1000000000000001</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -8009,25 +8009,25 @@
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L33">
         <v>2.2890000000000001</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -8050,25 +8050,25 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L34">
         <v>2.531199999999993</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -8091,25 +8091,25 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L35">
         <v>2.7159999999999931</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -8132,25 +8132,25 @@
         <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
         <v>131</v>
       </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L36">
         <v>2.7159999999999931</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -8173,25 +8173,25 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L37">
         <v>2.9085000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8214,25 +8214,25 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L38">
         <v>3.0628500000000001</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8255,25 +8255,25 @@
         <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L39">
         <v>3.1017000000000001</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -8296,25 +8296,25 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L40">
         <v>3.2340000000000004</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8337,25 +8337,25 @@
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
         <v>131</v>
       </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L41">
         <v>3.2340000000000004</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -8378,25 +8378,25 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L42">
         <v>2.3100000000000005</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -8419,25 +8419,25 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L43">
         <v>2.4500000000000073</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -8460,25 +8460,25 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L44">
         <v>2.7999999999999932</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -8501,25 +8501,25 @@
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L45">
         <v>3.1500000000000004</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -8542,25 +8542,25 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
         <v>131</v>
       </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L46">
         <v>3.1500000000000004</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -8580,28 +8580,28 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L47">
         <v>3.0213118743951224</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -8621,28 +8621,28 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>3.2044216849645331</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -8662,28 +8662,28 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L49">
         <v>3.6621962113880175</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -8703,28 +8703,28 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L50">
         <v>4.1199707378115304</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -8744,28 +8744,28 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
         <v>131</v>
       </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L51">
         <v>4.1199707378115304</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -8788,25 +8788,25 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L52">
         <v>2.3100000000000005</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -8829,25 +8829,25 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L53">
         <v>2.4500000000000073</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -8870,25 +8870,25 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L54">
         <v>2.7999999999999932</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -8911,25 +8911,25 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L55">
         <v>3.1500000000000004</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -8952,25 +8952,25 @@
         <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" t="s">
         <v>131</v>
       </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L56">
         <v>3.1500000000000004</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -8990,28 +8990,28 @@
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L57">
         <v>2.7466471585410202</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -9031,28 +9031,28 @@
         <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L58">
         <v>2.8382020638257122</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -9072,28 +9072,28 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L59">
         <v>3.1128667796798135</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -9113,28 +9113,28 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L60">
         <v>3.2044216849645331</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -9154,28 +9154,28 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" t="s">
         <v>131</v>
       </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L61">
         <v>3.2044216849645331</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -9198,25 +9198,25 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L62">
         <v>2.1000000000000001</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -9239,25 +9239,25 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L63">
         <v>2.1699999999999933</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -9280,25 +9280,25 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L64">
         <v>2.3799999999999932</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -9321,25 +9321,25 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L65">
         <v>2.4500000000000073</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -9362,25 +9362,25 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" t="s">
         <v>131</v>
       </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L66">
         <v>2.4500000000000073</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -9403,25 +9403,25 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L67">
         <v>1.0230831673189618</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -9444,25 +9444,25 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L68">
         <v>1.098867105638881</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -9485,25 +9485,25 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L69">
         <v>1.288326951438691</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -9526,25 +9526,25 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L70">
         <v>1.288326951438691</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -9567,25 +9567,25 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L71">
         <v>1.288326951438691</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -9608,25 +9608,25 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G72" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L72">
         <v>0.58390584482113206</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -9649,25 +9649,25 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G73" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L73">
         <v>0.62715812962269724</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -9690,25 +9690,25 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L74">
         <v>0.73528884162661301</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -9731,25 +9731,25 @@
         <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L75">
         <v>0.73528884162661301</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -9772,25 +9772,25 @@
         <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" t="s">
         <v>131</v>
       </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L76">
         <v>0.73528884162661301</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -9813,25 +9813,25 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G77" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L77">
         <v>1.1367590747988445</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -9854,25 +9854,25 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L78">
         <v>1.1746510439588003</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -9895,25 +9895,25 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L79">
         <v>1.1746510439588003</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -9936,25 +9936,25 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L80">
         <v>1.2125430131187638</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -9977,25 +9977,25 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" t="s">
         <v>131</v>
       </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L81">
         <v>1.2125430131187638</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -10018,25 +10018,25 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L82">
         <v>0.64878427202347866</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -10059,25 +10059,25 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L83">
         <v>0.67041041442426386</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -10100,25 +10100,25 @@
         <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L84">
         <v>0.67041041442426386</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -10141,25 +10141,25 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L85">
         <v>0.69203655682504261</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -10182,25 +10182,25 @@
         <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" t="s">
         <v>131</v>
       </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L86">
         <v>0.69203655682504261</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -10223,25 +10223,25 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L87">
         <v>2.1000000000000001</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G88" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L88">
         <v>2.2400000000000069</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -10305,25 +10305,25 @@
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L89">
         <v>2.5899999999999932</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -10346,25 +10346,25 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L90">
         <v>2.7999999999999932</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -10387,25 +10387,25 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" t="s">
         <v>131</v>
       </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L91">
         <v>2.7999999999999932</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -10425,28 +10425,28 @@
         <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L92">
         <v>2.7466471585410202</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -10466,28 +10466,28 @@
         <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L93">
         <v>2.7466471585410202</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -10507,28 +10507,28 @@
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L94">
         <v>2.7466471585410202</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -10548,28 +10548,28 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L95">
         <v>2.7466471585410202</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -10589,28 +10589,28 @@
         <v>139</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" t="s">
         <v>131</v>
       </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L96">
         <v>2.7466471585410202</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -10633,25 +10633,25 @@
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L97">
         <v>2.1000000000000001</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -10674,25 +10674,25 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L98">
         <v>2.2400000000000069</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -10715,25 +10715,25 @@
         <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L99">
         <v>2.5899999999999932</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -10756,25 +10756,25 @@
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L100">
         <v>2.7999999999999932</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -10797,25 +10797,25 @@
         <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
         <v>131</v>
       </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L101">
         <v>2.7999999999999932</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -10838,25 +10838,25 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G102" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L102">
         <v>2.1000000000000001</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -10879,25 +10879,25 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G103" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L103">
         <v>2.3100000000000005</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -10920,25 +10920,25 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L104">
         <v>2.5899999999999932</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -10961,25 +10961,25 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L105">
         <v>2.7999999999999932</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -11002,25 +11002,25 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
+        <v>143</v>
+      </c>
+      <c r="G106" t="s">
         <v>131</v>
       </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
       <c r="H106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L106">
         <v>2.7999999999999932</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -11043,25 +11043,25 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G107" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L107">
         <v>2.1000000000000001</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -11084,25 +11084,25 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G108" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L108">
         <v>2.3100000000000005</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -11125,25 +11125,25 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L109">
         <v>2.5899999999999932</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -11166,25 +11166,25 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L110">
         <v>2.7999999999999932</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -11207,25 +11207,25 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
         <v>131</v>
       </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L111">
         <v>2.7999999999999932</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -11248,25 +11248,25 @@
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L112">
         <v>1.47</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -11289,25 +11289,25 @@
         <v>140</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L113">
         <v>1.6170000000000002</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -11330,25 +11330,25 @@
         <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L114">
         <v>1.8129999999999993</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -11371,25 +11371,25 @@
         <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L115">
         <v>1.9599999999999995</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -11412,25 +11412,25 @@
         <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
         <v>131</v>
       </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
       <c r="H116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L116">
         <v>1.9599999999999995</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -11453,25 +11453,25 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G117" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L117">
         <v>2.1000000000000001</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -11494,25 +11494,25 @@
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G118" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L118">
         <v>2.2890000000000001</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -11535,25 +11535,25 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L119">
         <v>2.531199999999993</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -11576,25 +11576,25 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L120">
         <v>2.7159999999999931</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -11617,25 +11617,25 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
+        <v>143</v>
+      </c>
+      <c r="G121" t="s">
         <v>131</v>
       </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L121">
         <v>2.7159999999999931</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -11658,25 +11658,25 @@
         <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L122">
         <v>2.9085000000000001</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -11699,25 +11699,25 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G123" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L123">
         <v>3.0628500000000001</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -11740,25 +11740,25 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L124">
         <v>3.1017000000000001</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -11781,25 +11781,25 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L125">
         <v>3.2340000000000004</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
         <v>37</v>
@@ -11822,25 +11822,25 @@
         <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
+        <v>143</v>
+      </c>
+      <c r="G126" t="s">
         <v>131</v>
       </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
       <c r="H126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L126">
         <v>3.2340000000000004</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
         <v>37</v>
@@ -11863,25 +11863,25 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G127" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L127">
         <v>2.3100000000000005</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s">
         <v>37</v>
@@ -11904,25 +11904,25 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L128">
         <v>2.4500000000000073</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -11945,25 +11945,25 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L129">
         <v>2.7999999999999932</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
         <v>37</v>
@@ -11986,25 +11986,25 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G130" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L130">
         <v>3.1500000000000004</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -12027,25 +12027,25 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
+        <v>143</v>
+      </c>
+      <c r="G131" t="s">
         <v>131</v>
       </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
       <c r="H131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L131">
         <v>3.1500000000000004</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -12065,28 +12065,28 @@
         <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G132" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L132">
         <v>3.0213118743951224</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -12106,28 +12106,28 @@
         <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G133" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L133">
         <v>3.2044216849645331</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -12147,28 +12147,28 @@
         <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L134">
         <v>3.6621962113880175</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -12188,28 +12188,28 @@
         <v>146</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G135" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L135">
         <v>4.1199707378115304</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -12229,28 +12229,28 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
+        <v>143</v>
+      </c>
+      <c r="G136" t="s">
         <v>131</v>
       </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
       <c r="H136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L136">
         <v>4.1199707378115304</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -12273,25 +12273,25 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G137" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L137">
         <v>2.3100000000000005</v>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
@@ -12314,25 +12314,25 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G138" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L138">
         <v>2.4500000000000073</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
         <v>37</v>
@@ -12355,25 +12355,25 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L139">
         <v>2.7999999999999932</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
         <v>37</v>
@@ -12396,25 +12396,25 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L140">
         <v>3.1500000000000004</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
         <v>37</v>
@@ -12437,25 +12437,25 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
+        <v>143</v>
+      </c>
+      <c r="G141" t="s">
         <v>131</v>
       </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
       <c r="H141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L141">
         <v>3.1500000000000004</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -12475,28 +12475,28 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L142">
         <v>2.7466471585410202</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -12516,28 +12516,28 @@
         <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G143" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L143">
         <v>2.8382020638257122</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12557,28 +12557,28 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L144">
         <v>3.1128667796798135</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -12598,28 +12598,28 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G145" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L145">
         <v>3.2044216849645331</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -12639,28 +12639,28 @@
         <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
+        <v>143</v>
+      </c>
+      <c r="G146" t="s">
         <v>131</v>
       </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
       <c r="H146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L146">
         <v>3.2044216849645331</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
@@ -12683,25 +12683,25 @@
         <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L147">
         <v>2.1000000000000001</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -12724,25 +12724,25 @@
         <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G148" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L148">
         <v>2.1699999999999933</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -12765,25 +12765,25 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L149">
         <v>2.3799999999999932</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -12806,25 +12806,25 @@
         <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G150" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L150">
         <v>2.4500000000000073</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12847,25 +12847,25 @@
         <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" t="s">
         <v>131</v>
       </c>
-      <c r="G151" t="s">
-        <v>32</v>
-      </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L151">
         <v>2.4500000000000073</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -12888,25 +12888,25 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G152" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L152">
         <v>1.0230831673189618</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -12929,25 +12929,25 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G153" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L153">
         <v>1.098867105638881</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -12970,25 +12970,25 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L154">
         <v>1.288326951438691</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -13011,25 +13011,25 @@
         <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L155">
         <v>1.288326951438691</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -13052,25 +13052,25 @@
         <v>138</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
+        <v>143</v>
+      </c>
+      <c r="G156" t="s">
         <v>131</v>
       </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
       <c r="H156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L156">
         <v>1.288326951438691</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
         <v>37</v>
@@ -13093,25 +13093,25 @@
         <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G157" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L157">
         <v>0.58390584482113206</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -13134,25 +13134,25 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G158" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L158">
         <v>0.62715812962269724</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B159" t="s">
         <v>37</v>
@@ -13175,25 +13175,25 @@
         <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L159">
         <v>0.73528884162661301</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
         <v>37</v>
@@ -13216,25 +13216,25 @@
         <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G160" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L160">
         <v>0.73528884162661301</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B161" t="s">
         <v>37</v>
@@ -13257,25 +13257,25 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F161" t="s">
+        <v>143</v>
+      </c>
+      <c r="G161" t="s">
         <v>131</v>
       </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
       <c r="H161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L161">
         <v>0.73528884162661301</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B162" t="s">
         <v>37</v>
@@ -13298,25 +13298,25 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G162" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L162">
         <v>1.1367590747988445</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -13339,25 +13339,25 @@
         <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G163" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L163">
         <v>1.1746510439588003</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B164" t="s">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L164">
         <v>1.1746510439588003</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -13421,25 +13421,25 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G165" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L165">
         <v>1.2125430131187638</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
@@ -13462,25 +13462,25 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
+        <v>143</v>
+      </c>
+      <c r="G166" t="s">
         <v>131</v>
       </c>
-      <c r="G166" t="s">
-        <v>32</v>
-      </c>
       <c r="H166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L166">
         <v>1.2125430131187638</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -13503,25 +13503,25 @@
         <v>140</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G167" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L167">
         <v>0.64878427202347866</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -13544,25 +13544,25 @@
         <v>140</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G168" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L168">
         <v>0.67041041442426386</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -13585,25 +13585,25 @@
         <v>140</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L169">
         <v>0.67041041442426386</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -13626,25 +13626,25 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="H170" t="s">
-        <v>33</